--- a/RA/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
+++ b/RA/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="9645" windowHeight="4740" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="9645" windowHeight="4740" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Prospetto orario (CON AN)" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="4_VV" sheetId="5" r:id="rId6"/>
     <sheet name="Grafici" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="169">
   <si>
     <t>Membro</t>
   </si>
@@ -489,15 +489,54 @@
   <si>
     <t>(+2)</t>
   </si>
+  <si>
+    <t>Generale</t>
+  </si>
+  <si>
+    <t>Utente</t>
+  </si>
+  <si>
+    <t>Dipendente</t>
+  </si>
+  <si>
+    <t>Test superati</t>
+  </si>
+  <si>
+    <t>Test totali</t>
+  </si>
+  <si>
+    <t>Amministratore Azienda</t>
+  </si>
+  <si>
+    <t>Amministratore Sicurezza</t>
+  </si>
+  <si>
+    <t>Amministratore Installatore</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>Amministratore azienda</t>
+  </si>
+  <si>
+    <t>Obbligatori</t>
+  </si>
+  <si>
+    <t>Desiderabili</t>
+  </si>
+  <si>
+    <t>Opzionali</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1629,10 +1668,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1647,55 +1734,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1710,22 +1765,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1968,25 +2007,54 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Preventivo</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2015,7 +2083,7 @@
             <c:numRef>
               <c:f>Consuntivo_2_PA!$P$25:$P$29</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
@@ -2042,8 +2110,15 @@
           <c:tx>
             <c:v>Consuntivo</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2072,7 +2147,7 @@
             <c:numRef>
               <c:f>Consuntivo_2_PA!$P$2:$P$6</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
@@ -2093,43 +2168,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="120972416"/>
-        <c:axId val="120973952"/>
+        <c:axId val="95625600"/>
+        <c:axId val="95627136"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="120972416"/>
+        <c:axId val="95625600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120973952"/>
+        <c:crossAx val="95627136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120973952"/>
+        <c:axId val="95627136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="Standard" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120972416"/>
+        <c:crossAx val="95625600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -2163,16 +2256,39 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2186,6 +2302,7 @@
             </a:scene3d>
             <a:sp3d/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
               <a:bodyPr/>
@@ -2197,7 +2314,13 @@
                 <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strLit>
@@ -2211,7 +2334,7 @@
             <c:numRef>
               <c:f>Consuntivo_2_PA!$Q$30</c:f>
               <c:numCache>
-                <c:formatCode>"€"\ #,##000</c:formatCode>
+                <c:formatCode>"€"\ #,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>4217</c:v>
@@ -2226,6 +2349,7 @@
           <c:tx>
             <c:v>Consuntivo</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
               <a:bodyPr/>
@@ -2237,7 +2361,13 @@
                 <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strLit>
@@ -2251,7 +2381,7 @@
             <c:numRef>
               <c:f>Consuntivo_2_PA!$Q$7</c:f>
               <c:numCache>
-                <c:formatCode>"€"\ #,##000</c:formatCode>
+                <c:formatCode>"€"\ #,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>4187</c:v>
@@ -2260,44 +2390,62 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="123122816"/>
-        <c:axId val="123124352"/>
+        <c:axId val="95645056"/>
+        <c:axId val="95659136"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="123122816"/>
+        <c:axId val="95645056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123124352"/>
+        <c:crossAx val="95659136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123124352"/>
+        <c:axId val="95659136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="&quot;€&quot;\ #,##000" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;€&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123122816"/>
+        <c:crossAx val="95645056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -2341,13 +2489,25 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2362,6 +2522,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2395,7 +2556,7 @@
             <c:numRef>
               <c:f>Grafici!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -2436,6 +2597,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2469,7 +2631,7 @@
             <c:numRef>
               <c:f>Grafici!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -2510,6 +2672,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2543,7 +2706,7 @@
             <c:numRef>
               <c:f>Grafici!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
@@ -2584,6 +2747,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2617,7 +2781,7 @@
             <c:numRef>
               <c:f>Grafici!$E$2:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -2658,6 +2822,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2691,7 +2856,7 @@
             <c:numRef>
               <c:f>Grafici!$F$2:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
@@ -2732,6 +2897,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2765,7 +2931,7 @@
             <c:numRef>
               <c:f>Grafici!$G$2:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -2792,42 +2958,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="127165952"/>
-        <c:axId val="127167488"/>
+        <c:axId val="96454144"/>
+        <c:axId val="96455680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127165952"/>
+        <c:axId val="96454144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127167488"/>
+        <c:crossAx val="96455680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127167488"/>
+        <c:axId val="96455680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="Standard" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127165952"/>
+        <c:crossAx val="96454144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2839,8 +3024,19 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2849,7 +3045,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2882,7 +3083,7 @@
             <c:numRef>
               <c:f>Grafici!$F$40:$F$45</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
@@ -2906,14 +3107,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2925,8 +3138,19 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2935,7 +3159,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2968,7 +3197,7 @@
             <c:numRef>
               <c:f>Grafici!$G$40:$G$45</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1770</c:v>
@@ -2992,18 +3221,367 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="&quot;€&quot;\ #,##0.00" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Grafici!$E$40:$E$45</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Responsabile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amministratore</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analista</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Verificatore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Progettista</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Programmatore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Grafici!$G$40:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Grafici!$X$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test superati</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Grafici!$W$34:$W$39</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Generale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Utente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dipendente</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Amministratore Azienda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Amministratore Sicurezza</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Amministratore Installatore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Grafici!$X$34:$X$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Grafici!$Y$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test totali</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Grafici!$W$34:$W$39</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Generale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Utente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dipendente</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Amministratore Azienda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Amministratore Sicurezza</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Amministratore Installatore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Grafici!$Y$34:$Y$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="93809664"/>
+        <c:axId val="94569600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="93809664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94569600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94569600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93809664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3166,6 +3744,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3244,6 +3882,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3278,6 +3917,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3453,14 +4093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="5" customWidth="1"/>
     <col min="2" max="3" width="3.42578125" style="5" customWidth="1"/>
@@ -3485,7 +4125,7 @@
     <col min="59" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="13.5" thickBot="1">
+    <row r="1" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
@@ -3525,7 +4165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" s="139" t="s">
         <v>7</v>
       </c>
@@ -3578,19 +4218,19 @@
         <f>'1_AN'!O2</f>
         <v>Membro</v>
       </c>
-      <c r="AC2" s="195" t="str">
+      <c r="AC2" s="200" t="str">
         <f>'1_AN'!P2</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="195" t="str">
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="200" t="str">
         <f>'1_AN'!S2</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="189" t="str">
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="203" t="str">
         <f>'1_AN'!V2</f>
         <v>Totale</v>
       </c>
@@ -3653,7 +4293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="13.5" thickBot="1">
+    <row r="3" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="139" t="s">
         <v>8</v>
       </c>
@@ -3724,9 +4364,9 @@
         <f>'1_AN'!U3</f>
         <v>Fase</v>
       </c>
-      <c r="AI3" s="190"/>
-    </row>
-    <row r="4" spans="1:60">
+      <c r="AI3" s="204"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="139" t="s">
         <v>10</v>
       </c>
@@ -3858,7 +4498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="139" t="s">
         <v>9</v>
       </c>
@@ -3990,7 +4630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="139" t="s">
         <v>11</v>
       </c>
@@ -4122,7 +4762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="139" t="s">
         <v>12</v>
       </c>
@@ -4254,7 +4894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="139" t="s">
         <v>13</v>
       </c>
@@ -4386,7 +5026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="139" t="s">
         <v>14</v>
       </c>
@@ -4500,7 +5140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="13.5" thickBot="1">
+    <row r="10" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB10" s="102" t="str">
         <f>'1_AN'!O10</f>
         <v>Maggiolo Giorgio</v>
@@ -4594,38 +5234,38 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="13.5" thickBot="1">
+    <row r="11" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="BG11" s="144">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AA12" s="5" t="s">
         <v>123</v>
       </c>
       <c r="AB12" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="195" t="str">
+      <c r="AC12" s="200" t="str">
         <f>Consuntivo_2_PA!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="198"/>
-      <c r="AE12" s="199"/>
-      <c r="AF12" s="185" t="str">
+      <c r="AD12" s="205"/>
+      <c r="AE12" s="206"/>
+      <c r="AF12" s="207" t="str">
         <f>Consuntivo_2_PA!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="186"/>
-      <c r="AH12" s="187"/>
-      <c r="AI12" s="185" t="str">
+      <c r="AG12" s="208"/>
+      <c r="AH12" s="209"/>
+      <c r="AI12" s="207" t="str">
         <f>Consuntivo_2_PA!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="186"/>
-      <c r="AK12" s="188"/>
-      <c r="AL12" s="189" t="str">
+      <c r="AJ12" s="208"/>
+      <c r="AK12" s="210"/>
+      <c r="AL12" s="203" t="str">
         <f>Consuntivo_2_PA!AE9</f>
         <v>Totale</v>
       </c>
@@ -4634,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="13.5" thickBot="1">
+    <row r="13" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E13" s="5" t="e">
         <f>VALUE(AB14)</f>
         <v>#VALUE!</v>
@@ -4676,7 +5316,7 @@
         <f>Consuntivo_2_PA!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="190"/>
+      <c r="AL13" s="204"/>
       <c r="AM13" s="5">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -4686,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="F14" s="5" t="str">
         <f>IF(AB8=AB4&amp;AB7=AB10,"fghj","lllllllll")</f>
         <v>lllllllll</v>
@@ -4731,7 +5371,7 @@
         <f>Consuntivo_2_PA!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="191">
+      <c r="AL14" s="211">
         <f>Consuntivo_2_PA!AE11</f>
         <v>26</v>
       </c>
@@ -4816,7 +5456,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <f>IF(AB10=A2,AA12,0)</f>
         <v>0</v>
@@ -4861,7 +5501,7 @@
         <f>Consuntivo_2_PA!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="183"/>
+      <c r="AL15" s="199"/>
       <c r="AO15" s="5">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -4939,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB16" s="44" t="str">
         <f>Consuntivo_2_PA!U13</f>
         <v>Facchin Gabriele</v>
@@ -4980,7 +5620,7 @@
         <f>Consuntivo_2_PA!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="183">
+      <c r="AL16" s="199">
         <f>Consuntivo_2_PA!AE13</f>
         <v>27</v>
       </c>
@@ -5061,7 +5701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:60">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB17" s="44">
         <f>Consuntivo_2_PA!U14</f>
         <v>0</v>
@@ -5102,7 +5742,7 @@
         <f>Consuntivo_2_PA!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="183"/>
+      <c r="AL17" s="199"/>
       <c r="AO17" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5180,7 +5820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:60">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB18" s="53" t="str">
         <f>Consuntivo_2_PA!U15</f>
         <v>Cornaglia Alessando</v>
@@ -5221,7 +5861,7 @@
         <f>Consuntivo_2_PA!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="183">
+      <c r="AL18" s="199">
         <f>Consuntivo_2_PA!AE15</f>
         <v>26</v>
       </c>
@@ -5302,7 +5942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:60">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB19" s="49">
         <f>Consuntivo_2_PA!U16</f>
         <v>0</v>
@@ -5343,7 +5983,7 @@
         <f>Consuntivo_2_PA!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="183"/>
+      <c r="AL19" s="199"/>
       <c r="AO19" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5421,7 +6061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:60">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB20" s="44" t="str">
         <f>Consuntivo_2_PA!U17</f>
         <v>Dalla Pietà Massimo</v>
@@ -5462,7 +6102,7 @@
         <f>Consuntivo_2_PA!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="183">
+      <c r="AL20" s="199">
         <f>Consuntivo_2_PA!AE17</f>
         <v>28</v>
       </c>
@@ -5543,7 +6183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:60">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB21" s="44">
         <f>Consuntivo_2_PA!U18</f>
         <v>0</v>
@@ -5584,7 +6224,7 @@
         <f>Consuntivo_2_PA!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="183"/>
+      <c r="AL21" s="199"/>
       <c r="AO21" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5662,7 +6302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:60">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB22" s="53" t="str">
         <f>Consuntivo_2_PA!U19</f>
         <v>Braghetto Lorenzo</v>
@@ -5703,7 +6343,7 @@
         <f>Consuntivo_2_PA!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="183">
+      <c r="AL22" s="199">
         <f>Consuntivo_2_PA!AE19</f>
         <v>30</v>
       </c>
@@ -5784,40 +6424,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:60">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="200" t="s">
+      <c r="B23" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="200"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200" t="s">
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200" t="s">
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="200"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="200" t="s">
+      <c r="I23" s="212"/>
+      <c r="J23" s="212"/>
+      <c r="K23" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="200"/>
-      <c r="M23" s="200"/>
-      <c r="N23" s="200" t="s">
+      <c r="L23" s="212"/>
+      <c r="M23" s="212"/>
+      <c r="N23" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="200"/>
-      <c r="P23" s="200"/>
-      <c r="Q23" s="200" t="s">
+      <c r="O23" s="212"/>
+      <c r="P23" s="212"/>
+      <c r="Q23" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="200"/>
-      <c r="S23" s="200"/>
+      <c r="R23" s="212"/>
+      <c r="S23" s="212"/>
       <c r="T23" s="150" t="s">
         <v>14</v>
       </c>
@@ -5862,7 +6502,7 @@
         <f>Consuntivo_2_PA!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="183"/>
+      <c r="AL23" s="199"/>
       <c r="AO23" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5940,51 +6580,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:60">
-      <c r="A24" s="192" t="s">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A24" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="194">
+      <c r="B24" s="196">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194">
+      <c r="C24" s="196"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="196">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="193">
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="197">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>15</v>
       </c>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="194">
+      <c r="I24" s="197"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="196">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="194"/>
-      <c r="M24" s="194"/>
-      <c r="N24" s="193">
+      <c r="L24" s="196"/>
+      <c r="M24" s="196"/>
+      <c r="N24" s="197">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="193"/>
-      <c r="P24" s="193"/>
-      <c r="Q24" s="194">
+      <c r="O24" s="197"/>
+      <c r="P24" s="197"/>
+      <c r="Q24" s="196">
         <f t="shared" ref="Q24" si="38">SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="194"/>
-      <c r="S24" s="194"/>
-      <c r="T24" s="203">
+      <c r="R24" s="196"/>
+      <c r="S24" s="196"/>
+      <c r="T24" s="194">
         <f t="shared" ref="T24" si="39">SUM(B24:S25)</f>
         <v>115</v>
       </c>
-      <c r="U24" s="202"/>
+      <c r="U24" s="193"/>
       <c r="AB24" s="44" t="str">
         <f>Consuntivo_2_PA!U21</f>
         <v>Quadrio Giacomo</v>
@@ -6025,7 +6665,7 @@
         <f>Consuntivo_2_PA!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="183">
+      <c r="AL24" s="199">
         <f>Consuntivo_2_PA!AE21</f>
         <v>28</v>
       </c>
@@ -6106,28 +6746,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:60">
-      <c r="A25" s="192"/>
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="194"/>
-      <c r="L25" s="194"/>
-      <c r="M25" s="194"/>
-      <c r="N25" s="193"/>
-      <c r="O25" s="193"/>
-      <c r="P25" s="193"/>
-      <c r="Q25" s="194"/>
-      <c r="R25" s="194"/>
-      <c r="S25" s="194"/>
-      <c r="T25" s="203"/>
-      <c r="U25" s="202"/>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A25" s="198"/>
+      <c r="B25" s="196"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="196"/>
+      <c r="L25" s="196"/>
+      <c r="M25" s="196"/>
+      <c r="N25" s="197"/>
+      <c r="O25" s="197"/>
+      <c r="P25" s="197"/>
+      <c r="Q25" s="196"/>
+      <c r="R25" s="196"/>
+      <c r="S25" s="196"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="193"/>
       <c r="AB25" s="44">
         <f>Consuntivo_2_PA!U22</f>
         <v>0</v>
@@ -6168,7 +6808,7 @@
         <f>Consuntivo_2_PA!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="183"/>
+      <c r="AL25" s="199"/>
       <c r="AO25" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6246,51 +6886,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60">
-      <c r="A26" s="192" t="s">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A26" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="194">
+      <c r="B26" s="196">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="194"/>
-      <c r="D26" s="194"/>
-      <c r="E26" s="194">
+      <c r="C26" s="196"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="196">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="194"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194">
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>11</v>
       </c>
-      <c r="I26" s="194"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="193">
+      <c r="I26" s="196"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="197">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>41</v>
       </c>
-      <c r="L26" s="193"/>
-      <c r="M26" s="193"/>
-      <c r="N26" s="194">
+      <c r="L26" s="197"/>
+      <c r="M26" s="197"/>
+      <c r="N26" s="196">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="194"/>
-      <c r="P26" s="194"/>
-      <c r="Q26" s="194">
+      <c r="O26" s="196"/>
+      <c r="P26" s="196"/>
+      <c r="Q26" s="196">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="194"/>
-      <c r="S26" s="194"/>
-      <c r="T26" s="203">
+      <c r="R26" s="196"/>
+      <c r="S26" s="196"/>
+      <c r="T26" s="194">
         <f t="shared" ref="T26" si="40">SUM(B26:S27)</f>
         <v>116</v>
       </c>
-      <c r="U26" s="202"/>
+      <c r="U26" s="193"/>
       <c r="AB26" s="53" t="str">
         <f>Consuntivo_2_PA!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -6331,7 +6971,7 @@
         <f>Consuntivo_2_PA!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="183">
+      <c r="AL26" s="199">
         <f>Consuntivo_2_PA!AE23</f>
         <v>28</v>
       </c>
@@ -6412,28 +7052,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A27" s="192"/>
-      <c r="B27" s="194"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
-      <c r="M27" s="193"/>
-      <c r="N27" s="194"/>
-      <c r="O27" s="194"/>
-      <c r="P27" s="194"/>
-      <c r="Q27" s="194"/>
-      <c r="R27" s="194"/>
-      <c r="S27" s="194"/>
-      <c r="T27" s="203"/>
-      <c r="U27" s="202"/>
+    <row r="27" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="198"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="197"/>
+      <c r="M27" s="197"/>
+      <c r="N27" s="196"/>
+      <c r="O27" s="196"/>
+      <c r="P27" s="196"/>
+      <c r="Q27" s="196"/>
+      <c r="R27" s="196"/>
+      <c r="S27" s="196"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="193"/>
       <c r="AB27" s="75">
         <f>Consuntivo_2_PA!U24</f>
         <v>0</v>
@@ -6474,7 +7114,7 @@
         <f>Consuntivo_2_PA!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="184"/>
+      <c r="AL27" s="213"/>
       <c r="AO27" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6552,97 +7192,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A28" s="192" t="s">
+    <row r="28" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="194">
+      <c r="B28" s="196">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="194"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="194">
+      <c r="C28" s="196"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="196">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>14</v>
       </c>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194">
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>13</v>
       </c>
-      <c r="I28" s="194"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="194">
+      <c r="I28" s="196"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="196">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="194"/>
-      <c r="M28" s="194"/>
-      <c r="N28" s="194">
+      <c r="L28" s="196"/>
+      <c r="M28" s="196"/>
+      <c r="N28" s="196">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="194"/>
-      <c r="P28" s="194"/>
-      <c r="Q28" s="193">
+      <c r="O28" s="196"/>
+      <c r="P28" s="196"/>
+      <c r="Q28" s="197">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="193"/>
-      <c r="S28" s="193"/>
-      <c r="T28" s="203">
+      <c r="R28" s="197"/>
+      <c r="S28" s="197"/>
+      <c r="T28" s="194">
         <f t="shared" ref="T28" si="41">SUM(B28:S29)</f>
         <v>117</v>
       </c>
-      <c r="U28" s="202"/>
+      <c r="U28" s="193"/>
       <c r="BG28" s="144">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60">
-      <c r="A29" s="192"/>
-      <c r="B29" s="194"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="194"/>
-      <c r="L29" s="194"/>
-      <c r="M29" s="194"/>
-      <c r="N29" s="194"/>
-      <c r="O29" s="194"/>
-      <c r="P29" s="194"/>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="193"/>
-      <c r="T29" s="203"/>
-      <c r="U29" s="202"/>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A29" s="198"/>
+      <c r="B29" s="196"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="196"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="196"/>
+      <c r="N29" s="196"/>
+      <c r="O29" s="196"/>
+      <c r="P29" s="196"/>
+      <c r="Q29" s="197"/>
+      <c r="R29" s="197"/>
+      <c r="S29" s="197"/>
+      <c r="T29" s="194"/>
+      <c r="U29" s="193"/>
       <c r="AA29" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="185" t="str">
+      <c r="AC29" s="207" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="186"/>
-      <c r="AE29" s="187"/>
-      <c r="AF29" s="185" t="str">
+      <c r="AD29" s="208"/>
+      <c r="AE29" s="209"/>
+      <c r="AF29" s="207" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="186"/>
-      <c r="AH29" s="188"/>
-      <c r="AI29" s="189" t="str">
+      <c r="AG29" s="208"/>
+      <c r="AH29" s="210"/>
+      <c r="AI29" s="203" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -6651,51 +7291,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A30" s="192" t="s">
+    <row r="30" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="194">
+      <c r="B30" s="196">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="194"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="194">
+      <c r="C30" s="196"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="196">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="194"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194">
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>11</v>
       </c>
-      <c r="I30" s="194"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="193">
+      <c r="I30" s="196"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="197">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>39</v>
       </c>
-      <c r="L30" s="193"/>
-      <c r="M30" s="193"/>
-      <c r="N30" s="193">
+      <c r="L30" s="197"/>
+      <c r="M30" s="197"/>
+      <c r="N30" s="197">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="193"/>
-      <c r="P30" s="193"/>
-      <c r="Q30" s="194">
+      <c r="O30" s="197"/>
+      <c r="P30" s="197"/>
+      <c r="Q30" s="196">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="194"/>
-      <c r="S30" s="194"/>
-      <c r="T30" s="203">
+      <c r="R30" s="196"/>
+      <c r="S30" s="196"/>
+      <c r="T30" s="194">
         <f t="shared" ref="T30" si="42">SUM(B30:S31)</f>
         <v>122</v>
       </c>
-      <c r="U30" s="202"/>
+      <c r="U30" s="193"/>
       <c r="AB30" s="141"/>
       <c r="AC30" s="40" t="str">
         <f>'3_PDC'!U7</f>
@@ -6721,7 +7361,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="190"/>
+      <c r="AI30" s="204"/>
       <c r="AK30" s="5">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -6731,28 +7371,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60">
-      <c r="A31" s="192"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="193"/>
-      <c r="M31" s="193"/>
-      <c r="N31" s="193"/>
-      <c r="O31" s="193"/>
-      <c r="P31" s="193"/>
-      <c r="Q31" s="194"/>
-      <c r="R31" s="194"/>
-      <c r="S31" s="194"/>
-      <c r="T31" s="203"/>
-      <c r="U31" s="202"/>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A31" s="198"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="197"/>
+      <c r="L31" s="197"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="197"/>
+      <c r="O31" s="197"/>
+      <c r="P31" s="197"/>
+      <c r="Q31" s="196"/>
+      <c r="R31" s="196"/>
+      <c r="S31" s="196"/>
+      <c r="T31" s="194"/>
+      <c r="U31" s="193"/>
       <c r="AB31" s="44" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -6781,7 +7421,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="191">
+      <c r="AI31" s="211">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -6866,51 +7506,51 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:60">
-      <c r="A32" s="192" t="s">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A32" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="194">
+      <c r="B32" s="196">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194">
+      <c r="C32" s="196"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="196">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194">
+      <c r="F32" s="196"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="196">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>12</v>
       </c>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="194">
+      <c r="I32" s="196"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="196">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>30</v>
       </c>
-      <c r="L32" s="194"/>
-      <c r="M32" s="194"/>
-      <c r="N32" s="193">
+      <c r="L32" s="196"/>
+      <c r="M32" s="196"/>
+      <c r="N32" s="197">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="193"/>
-      <c r="P32" s="193"/>
-      <c r="Q32" s="194">
+      <c r="O32" s="197"/>
+      <c r="P32" s="197"/>
+      <c r="Q32" s="196">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="194"/>
-      <c r="S32" s="194"/>
-      <c r="T32" s="203">
+      <c r="R32" s="196"/>
+      <c r="S32" s="196"/>
+      <c r="T32" s="194">
         <f t="shared" ref="T32" si="58">SUM(B32:S33)</f>
         <v>122</v>
       </c>
-      <c r="U32" s="202"/>
+      <c r="U32" s="193"/>
       <c r="AB32" s="49">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -6939,7 +7579,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="183"/>
+      <c r="AI32" s="199"/>
       <c r="AO32" s="5">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -7017,28 +7657,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:60">
-      <c r="A33" s="192"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="194"/>
-      <c r="M33" s="194"/>
-      <c r="N33" s="193"/>
-      <c r="O33" s="193"/>
-      <c r="P33" s="193"/>
-      <c r="Q33" s="194"/>
-      <c r="R33" s="194"/>
-      <c r="S33" s="194"/>
-      <c r="T33" s="203"/>
-      <c r="U33" s="202"/>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A33" s="198"/>
+      <c r="B33" s="196"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="196"/>
+      <c r="M33" s="196"/>
+      <c r="N33" s="197"/>
+      <c r="O33" s="197"/>
+      <c r="P33" s="197"/>
+      <c r="Q33" s="196"/>
+      <c r="R33" s="196"/>
+      <c r="S33" s="196"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="193"/>
       <c r="AB33" s="44" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -7067,7 +7707,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="183">
+      <c r="AI33" s="199">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -7148,51 +7788,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:60">
-      <c r="A34" s="192" t="s">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A34" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="194">
+      <c r="B34" s="196">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194">
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194"/>
-      <c r="H34" s="194">
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>10</v>
       </c>
-      <c r="I34" s="194"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="193">
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="197">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>37</v>
       </c>
-      <c r="L34" s="193"/>
-      <c r="M34" s="193"/>
-      <c r="N34" s="193">
+      <c r="L34" s="197"/>
+      <c r="M34" s="197"/>
+      <c r="N34" s="197">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="193"/>
-      <c r="P34" s="193"/>
-      <c r="Q34" s="193">
+      <c r="O34" s="197"/>
+      <c r="P34" s="197"/>
+      <c r="Q34" s="197">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="193"/>
-      <c r="S34" s="193"/>
-      <c r="T34" s="203">
+      <c r="R34" s="197"/>
+      <c r="S34" s="197"/>
+      <c r="T34" s="194">
         <f t="shared" ref="T34" si="62">SUM(B34:S35)</f>
         <v>120</v>
       </c>
-      <c r="U34" s="202"/>
+      <c r="U34" s="193"/>
       <c r="AB34" s="44">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -7221,7 +7861,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="183"/>
+      <c r="AI34" s="199"/>
       <c r="AO34" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7299,28 +7939,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:60">
-      <c r="A35" s="192"/>
-      <c r="B35" s="194"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="193"/>
-      <c r="L35" s="193"/>
-      <c r="M35" s="193"/>
-      <c r="N35" s="193"/>
-      <c r="O35" s="193"/>
-      <c r="P35" s="193"/>
-      <c r="Q35" s="193"/>
-      <c r="R35" s="193"/>
-      <c r="S35" s="193"/>
-      <c r="T35" s="203"/>
-      <c r="U35" s="202"/>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A35" s="198"/>
+      <c r="B35" s="196"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="197"/>
+      <c r="L35" s="197"/>
+      <c r="M35" s="197"/>
+      <c r="N35" s="197"/>
+      <c r="O35" s="197"/>
+      <c r="P35" s="197"/>
+      <c r="Q35" s="197"/>
+      <c r="R35" s="197"/>
+      <c r="S35" s="197"/>
+      <c r="T35" s="194"/>
+      <c r="U35" s="193"/>
       <c r="AB35" s="53" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -7349,7 +7989,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="183">
+      <c r="AI35" s="199">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -7430,51 +8070,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:60">
-      <c r="A36" s="192" t="s">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A36" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="194">
+      <c r="B36" s="196">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>12</v>
       </c>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194">
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194">
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="194"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="193">
+      <c r="I36" s="196"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="197">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="193"/>
-      <c r="M36" s="193"/>
-      <c r="N36" s="194">
+      <c r="L36" s="197"/>
+      <c r="M36" s="197"/>
+      <c r="N36" s="196">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="194"/>
-      <c r="P36" s="194"/>
-      <c r="Q36" s="194">
+      <c r="O36" s="196"/>
+      <c r="P36" s="196"/>
+      <c r="Q36" s="196">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="194"/>
-      <c r="S36" s="194"/>
-      <c r="T36" s="203">
+      <c r="R36" s="196"/>
+      <c r="S36" s="196"/>
+      <c r="T36" s="194">
         <f t="shared" ref="T36" si="63">SUM(B36:S37)</f>
         <v>116</v>
       </c>
-      <c r="U36" s="202"/>
+      <c r="U36" s="193"/>
       <c r="AB36" s="49">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -7503,7 +8143,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="183"/>
+      <c r="AI36" s="199"/>
       <c r="AO36" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7581,28 +8221,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:60">
-      <c r="A37" s="192"/>
-      <c r="B37" s="194"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="193"/>
-      <c r="L37" s="193"/>
-      <c r="M37" s="193"/>
-      <c r="N37" s="194"/>
-      <c r="O37" s="194"/>
-      <c r="P37" s="194"/>
-      <c r="Q37" s="194"/>
-      <c r="R37" s="194"/>
-      <c r="S37" s="194"/>
-      <c r="T37" s="203"/>
-      <c r="U37" s="202"/>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A37" s="198"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="197"/>
+      <c r="L37" s="197"/>
+      <c r="M37" s="197"/>
+      <c r="N37" s="196"/>
+      <c r="O37" s="196"/>
+      <c r="P37" s="196"/>
+      <c r="Q37" s="196"/>
+      <c r="R37" s="196"/>
+      <c r="S37" s="196"/>
+      <c r="T37" s="194"/>
+      <c r="U37" s="193"/>
       <c r="AB37" s="44" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -7631,7 +8271,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="183">
+      <c r="AI37" s="199">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -7712,51 +8352,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:60">
-      <c r="A38" s="201" t="s">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A38" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="194">
+      <c r="B38" s="196">
         <f>SUM(B24:D37)</f>
         <v>82</v>
       </c>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194">
+      <c r="C38" s="196"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196">
         <f t="shared" ref="E38" si="64">SUM(E24:G37)</f>
         <v>69</v>
       </c>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194">
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196">
         <f>SUM(H24:J37)</f>
         <v>79</v>
       </c>
-      <c r="I38" s="194"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="194">
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="196">
         <f t="shared" ref="K38" si="65">SUM(K24:M37)</f>
         <v>235</v>
       </c>
-      <c r="L38" s="194"/>
-      <c r="M38" s="194"/>
-      <c r="N38" s="194">
+      <c r="L38" s="196"/>
+      <c r="M38" s="196"/>
+      <c r="N38" s="196">
         <f t="shared" ref="N38" si="66">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="194"/>
-      <c r="P38" s="194"/>
-      <c r="Q38" s="194">
+      <c r="O38" s="196"/>
+      <c r="P38" s="196"/>
+      <c r="Q38" s="196">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="194"/>
-      <c r="S38" s="194"/>
-      <c r="T38" s="203">
+      <c r="R38" s="196"/>
+      <c r="S38" s="196"/>
+      <c r="T38" s="194">
         <f>SUM(B38:S39)</f>
         <v>828</v>
       </c>
-      <c r="U38" s="202"/>
+      <c r="U38" s="193"/>
       <c r="AB38" s="44">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -7785,7 +8425,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="183"/>
+      <c r="AI38" s="199"/>
       <c r="AO38" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7863,28 +8503,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:60">
-      <c r="A39" s="201"/>
-      <c r="B39" s="194"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="194"/>
-      <c r="L39" s="194"/>
-      <c r="M39" s="194"/>
-      <c r="N39" s="194"/>
-      <c r="O39" s="194"/>
-      <c r="P39" s="194"/>
-      <c r="Q39" s="194"/>
-      <c r="R39" s="194"/>
-      <c r="S39" s="194"/>
-      <c r="T39" s="203"/>
-      <c r="U39" s="202"/>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A39" s="195"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="196"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="196"/>
+      <c r="M39" s="196"/>
+      <c r="N39" s="196"/>
+      <c r="O39" s="196"/>
+      <c r="P39" s="196"/>
+      <c r="Q39" s="196"/>
+      <c r="R39" s="196"/>
+      <c r="S39" s="196"/>
+      <c r="T39" s="194"/>
+      <c r="U39" s="193"/>
       <c r="AB39" s="53" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -7913,7 +8553,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="183">
+      <c r="AI39" s="199">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -7994,7 +8634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:60">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" s="139"/>
       <c r="AB40" s="49">
         <f>'3_PDC'!T17</f>
@@ -8024,7 +8664,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="183"/>
+      <c r="AI40" s="199"/>
       <c r="AO40" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8102,7 +8742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:60">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" s="139"/>
       <c r="AB41" s="44" t="str">
         <f>'3_PDC'!T18</f>
@@ -8132,7 +8772,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="183">
+      <c r="AI41" s="199">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -8213,7 +8853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:60">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A42" s="139"/>
       <c r="AB42" s="44">
         <f>'3_PDC'!T19</f>
@@ -8243,7 +8883,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="183"/>
+      <c r="AI42" s="199"/>
       <c r="AO42" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8321,7 +8961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:60">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A43" s="139"/>
       <c r="AB43" s="53" t="str">
         <f>'3_PDC'!T20</f>
@@ -8351,7 +8991,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="183">
+      <c r="AI43" s="199">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -8432,7 +9072,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="13.5" thickBot="1">
+    <row r="44" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="139"/>
       <c r="AB44" s="75">
         <f>'3_PDC'!T21</f>
@@ -8462,7 +9102,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="184"/>
+      <c r="AI44" s="213"/>
       <c r="AO44" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8540,14 +9180,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="13.5" thickBot="1">
+    <row r="45" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="139"/>
       <c r="BG45" s="144">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A46" s="139"/>
       <c r="AA46" s="5" t="s">
         <v>125</v>
@@ -8555,19 +9195,19 @@
       <c r="AB46" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="185" t="str">
+      <c r="AC46" s="207" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="186"/>
-      <c r="AE46" s="187"/>
-      <c r="AF46" s="185" t="str">
+      <c r="AD46" s="208"/>
+      <c r="AE46" s="209"/>
+      <c r="AF46" s="207" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="186"/>
-      <c r="AH46" s="188"/>
-      <c r="AI46" s="189" t="str">
+      <c r="AG46" s="208"/>
+      <c r="AH46" s="210"/>
+      <c r="AI46" s="203" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -8580,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="13.5" thickBot="1">
+    <row r="47" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="139"/>
       <c r="AB47" s="141"/>
       <c r="AC47" s="40" t="str">
@@ -8607,13 +9247,13 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="190"/>
+      <c r="AI47" s="204"/>
       <c r="BG47" s="144">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A48" s="139"/>
       <c r="AB48" s="44" t="str">
         <f>'4_VV'!T5</f>
@@ -8643,7 +9283,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="191">
+      <c r="AI48" s="211">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -8728,7 +9368,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="20:59">
+    <row r="49" spans="20:59" x14ac:dyDescent="0.2">
       <c r="AB49" s="49">
         <f>'4_VV'!T6</f>
         <v>0</v>
@@ -8757,7 +9397,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="183"/>
+      <c r="AI49" s="199"/>
       <c r="AO49" s="5">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -8835,7 +9475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="20:59" ht="13.5" thickBot="1">
+    <row r="50" spans="20:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB50" s="44" t="str">
         <f>'4_VV'!T7</f>
         <v>Facchin Gabriele</v>
@@ -8864,7 +9504,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="183">
+      <c r="AI50" s="199">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -8945,7 +9585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="20:59" ht="13.5" thickBot="1">
+    <row r="51" spans="20:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="T51" s="1" t="s">
         <v>26</v>
       </c>
@@ -8986,7 +9626,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="183"/>
+      <c r="AI51" s="199"/>
       <c r="AO51" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9064,7 +9704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="20:59">
+    <row r="52" spans="20:59" x14ac:dyDescent="0.2">
       <c r="T52" s="14" t="s">
         <v>1</v>
       </c>
@@ -9107,7 +9747,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="183">
+      <c r="AI52" s="199">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -9188,7 +9828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="20:59">
+    <row r="53" spans="20:59" x14ac:dyDescent="0.2">
       <c r="T53" s="21" t="s">
         <v>2</v>
       </c>
@@ -9231,7 +9871,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="183"/>
+      <c r="AI53" s="199"/>
       <c r="AO53" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9309,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="20:59">
+    <row r="54" spans="20:59" x14ac:dyDescent="0.2">
       <c r="T54" s="21" t="s">
         <v>3</v>
       </c>
@@ -9352,7 +9992,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="183">
+      <c r="AI54" s="199">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -9433,7 +10073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="20:59">
+    <row r="55" spans="20:59" x14ac:dyDescent="0.2">
       <c r="T55" s="21" t="s">
         <v>4</v>
       </c>
@@ -9476,7 +10116,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="183"/>
+      <c r="AI55" s="199"/>
       <c r="AO55" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9554,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="20:59">
+    <row r="56" spans="20:59" x14ac:dyDescent="0.2">
       <c r="T56" s="21" t="s">
         <v>5</v>
       </c>
@@ -9597,7 +10237,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="183">
+      <c r="AI56" s="199">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -9678,7 +10318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="20:59" ht="13.5" thickBot="1">
+    <row r="57" spans="20:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="T57" s="17" t="s">
         <v>6</v>
       </c>
@@ -9721,7 +10361,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="183"/>
+      <c r="AI57" s="199"/>
       <c r="AO57" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9799,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="20:59" ht="13.5" thickBot="1">
+    <row r="58" spans="20:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="T58" s="1" t="s">
         <v>14</v>
       </c>
@@ -9839,7 +10479,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="183">
+      <c r="AI58" s="199">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -9920,7 +10560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="20:59">
+    <row r="59" spans="20:59" x14ac:dyDescent="0.2">
       <c r="AB59" s="44">
         <f>'4_VV'!T16</f>
         <v>0</v>
@@ -9949,7 +10589,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="183"/>
+      <c r="AI59" s="199"/>
       <c r="AO59" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10027,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="20:59">
+    <row r="60" spans="20:59" x14ac:dyDescent="0.2">
       <c r="AB60" s="53" t="str">
         <f>'4_VV'!T17</f>
         <v>Maggiolo Giorgio</v>
@@ -10056,7 +10696,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="183">
+      <c r="AI60" s="199">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -10137,7 +10777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="20:59" ht="13.5" thickBot="1">
+    <row r="61" spans="20:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB61" s="75">
         <f>'4_VV'!T18</f>
         <v>0</v>
@@ -10166,7 +10806,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="184"/>
+      <c r="AI61" s="213"/>
       <c r="AO61" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10246,22 +10886,78 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -10286,78 +10982,22 @@
     <mergeCell ref="N36:P37"/>
     <mergeCell ref="Q36:S37"/>
     <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T36:T37"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
@@ -10388,14 +11028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="5" customWidth="1"/>
     <col min="2" max="3" width="3.42578125" style="5" customWidth="1"/>
@@ -10420,7 +11060,7 @@
     <col min="59" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="13.5" thickBot="1">
+    <row r="1" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="139"/>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -10444,7 +11084,7 @@
       <c r="U1" s="139"/>
       <c r="V1" s="139"/>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" s="139"/>
       <c r="B2" s="139"/>
       <c r="C2" s="139"/>
@@ -10471,13 +11111,13 @@
         <v>74</v>
       </c>
       <c r="AB2" s="140"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="189"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="203"/>
       <c r="AJ2" s="5">
         <f>SUM(AI4:AI10)</f>
         <v>0</v>
@@ -10537,7 +11177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="13.5" thickBot="1">
+    <row r="3" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="139"/>
       <c r="B3" s="139"/>
       <c r="C3" s="139"/>
@@ -10567,9 +11207,9 @@
       <c r="AF3" s="87"/>
       <c r="AG3" s="88"/>
       <c r="AH3" s="142"/>
-      <c r="AI3" s="190"/>
-    </row>
-    <row r="4" spans="1:60">
+      <c r="AI3" s="204"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="139"/>
       <c r="B4" s="139"/>
       <c r="C4" s="139"/>
@@ -10657,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="139"/>
       <c r="B5" s="139"/>
       <c r="C5" s="139"/>
@@ -10745,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="139"/>
       <c r="B6" s="139"/>
       <c r="C6" s="139"/>
@@ -10833,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="139"/>
       <c r="B7" s="139"/>
       <c r="C7" s="139"/>
@@ -10921,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="139"/>
       <c r="B8" s="139"/>
       <c r="C8" s="139"/>
@@ -11009,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="139"/>
       <c r="B9" s="139"/>
       <c r="C9" s="139"/>
@@ -11097,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="13.5" thickBot="1">
+    <row r="10" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB10" s="102"/>
       <c r="AC10" s="103"/>
       <c r="AD10" s="104"/>
@@ -11167,38 +11807,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="13.5" thickBot="1">
+    <row r="11" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="BG11" s="144">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AA12" s="5" t="s">
         <v>123</v>
       </c>
       <c r="AB12" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="195" t="str">
+      <c r="AC12" s="200" t="str">
         <f>Consuntivo_2_PA!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="198"/>
-      <c r="AE12" s="199"/>
-      <c r="AF12" s="185" t="str">
+      <c r="AD12" s="205"/>
+      <c r="AE12" s="206"/>
+      <c r="AF12" s="207" t="str">
         <f>Consuntivo_2_PA!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="186"/>
-      <c r="AH12" s="187"/>
-      <c r="AI12" s="185" t="str">
+      <c r="AG12" s="208"/>
+      <c r="AH12" s="209"/>
+      <c r="AI12" s="207" t="str">
         <f>Consuntivo_2_PA!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="186"/>
-      <c r="AK12" s="188"/>
-      <c r="AL12" s="189" t="str">
+      <c r="AJ12" s="208"/>
+      <c r="AK12" s="210"/>
+      <c r="AL12" s="203" t="str">
         <f>Consuntivo_2_PA!AE9</f>
         <v>Totale</v>
       </c>
@@ -11207,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="13.5" thickBot="1">
+    <row r="13" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB13" s="141"/>
       <c r="AC13" s="40" t="str">
         <f>Consuntivo_2_PA!V10</f>
@@ -11245,7 +11885,7 @@
         <f>Consuntivo_2_PA!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="190"/>
+      <c r="AL13" s="204"/>
       <c r="AM13" s="5">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -11255,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB14" s="44" t="str">
         <f>Consuntivo_2_PA!U11</f>
         <v>Begolo Marco</v>
@@ -11296,7 +11936,7 @@
         <f>Consuntivo_2_PA!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="191">
+      <c r="AL14" s="211">
         <f>Consuntivo_2_PA!AE11</f>
         <v>26</v>
       </c>
@@ -11381,7 +12021,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB15" s="49">
         <f>Consuntivo_2_PA!U12</f>
         <v>0</v>
@@ -11422,7 +12062,7 @@
         <f>Consuntivo_2_PA!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="183"/>
+      <c r="AL15" s="199"/>
       <c r="AO15" s="5">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -11500,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB16" s="44" t="str">
         <f>Consuntivo_2_PA!U13</f>
         <v>Facchin Gabriele</v>
@@ -11541,7 +12181,7 @@
         <f>Consuntivo_2_PA!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="183">
+      <c r="AL16" s="199">
         <f>Consuntivo_2_PA!AE13</f>
         <v>27</v>
       </c>
@@ -11622,7 +12262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:60">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB17" s="44">
         <f>Consuntivo_2_PA!U14</f>
         <v>0</v>
@@ -11663,7 +12303,7 @@
         <f>Consuntivo_2_PA!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="183"/>
+      <c r="AL17" s="199"/>
       <c r="AO17" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11741,7 +12381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:60">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB18" s="53" t="str">
         <f>Consuntivo_2_PA!U15</f>
         <v>Cornaglia Alessando</v>
@@ -11782,7 +12422,7 @@
         <f>Consuntivo_2_PA!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="183">
+      <c r="AL18" s="199">
         <f>Consuntivo_2_PA!AE15</f>
         <v>26</v>
       </c>
@@ -11863,7 +12503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:60">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB19" s="49">
         <f>Consuntivo_2_PA!U16</f>
         <v>0</v>
@@ -11904,7 +12544,7 @@
         <f>Consuntivo_2_PA!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="183"/>
+      <c r="AL19" s="199"/>
       <c r="AO19" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11982,7 +12622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:60">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB20" s="44" t="str">
         <f>Consuntivo_2_PA!U17</f>
         <v>Dalla Pietà Massimo</v>
@@ -12023,7 +12663,7 @@
         <f>Consuntivo_2_PA!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="183">
+      <c r="AL20" s="199">
         <f>Consuntivo_2_PA!AE17</f>
         <v>28</v>
       </c>
@@ -12104,7 +12744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:60">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB21" s="44">
         <f>Consuntivo_2_PA!U18</f>
         <v>0</v>
@@ -12145,7 +12785,7 @@
         <f>Consuntivo_2_PA!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="183"/>
+      <c r="AL21" s="199"/>
       <c r="AO21" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12223,7 +12863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:60">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AB22" s="53" t="str">
         <f>Consuntivo_2_PA!U19</f>
         <v>Braghetto Lorenzo</v>
@@ -12264,7 +12904,7 @@
         <f>Consuntivo_2_PA!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="183">
+      <c r="AL22" s="199">
         <f>Consuntivo_2_PA!AE19</f>
         <v>30</v>
       </c>
@@ -12345,40 +12985,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:60">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="200" t="s">
+      <c r="B23" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="200"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200" t="s">
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200" t="s">
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="200"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="200" t="s">
+      <c r="I23" s="212"/>
+      <c r="J23" s="212"/>
+      <c r="K23" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="200"/>
-      <c r="M23" s="200"/>
-      <c r="N23" s="200" t="s">
+      <c r="L23" s="212"/>
+      <c r="M23" s="212"/>
+      <c r="N23" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="200"/>
-      <c r="P23" s="200"/>
-      <c r="Q23" s="200" t="s">
+      <c r="O23" s="212"/>
+      <c r="P23" s="212"/>
+      <c r="Q23" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="200"/>
-      <c r="S23" s="200"/>
+      <c r="R23" s="212"/>
+      <c r="S23" s="212"/>
       <c r="T23" s="149" t="s">
         <v>14</v>
       </c>
@@ -12423,7 +13063,7 @@
         <f>Consuntivo_2_PA!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="183"/>
+      <c r="AL23" s="199"/>
       <c r="AO23" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12501,51 +13141,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:60">
-      <c r="A24" s="192" t="s">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A24" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="194">
+      <c r="B24" s="196">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194">
+      <c r="C24" s="196"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="196">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="193">
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="197">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>9</v>
       </c>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="194">
+      <c r="I24" s="197"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="196">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="194"/>
-      <c r="M24" s="194"/>
-      <c r="N24" s="193">
+      <c r="L24" s="196"/>
+      <c r="M24" s="196"/>
+      <c r="N24" s="197">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="193"/>
-      <c r="P24" s="193"/>
-      <c r="Q24" s="194">
+      <c r="O24" s="197"/>
+      <c r="P24" s="197"/>
+      <c r="Q24" s="196">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="194"/>
-      <c r="S24" s="194"/>
-      <c r="T24" s="194">
+      <c r="R24" s="196"/>
+      <c r="S24" s="196"/>
+      <c r="T24" s="196">
         <f t="shared" ref="T24" si="32">SUM(B24:S25)</f>
         <v>96</v>
       </c>
-      <c r="U24" s="202"/>
+      <c r="U24" s="193"/>
       <c r="AB24" s="44" t="str">
         <f>Consuntivo_2_PA!U21</f>
         <v>Quadrio Giacomo</v>
@@ -12586,7 +13226,7 @@
         <f>Consuntivo_2_PA!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="183">
+      <c r="AL24" s="199">
         <f>Consuntivo_2_PA!AE21</f>
         <v>28</v>
       </c>
@@ -12667,28 +13307,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:60">
-      <c r="A25" s="192"/>
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="194"/>
-      <c r="L25" s="194"/>
-      <c r="M25" s="194"/>
-      <c r="N25" s="193"/>
-      <c r="O25" s="193"/>
-      <c r="P25" s="193"/>
-      <c r="Q25" s="194"/>
-      <c r="R25" s="194"/>
-      <c r="S25" s="194"/>
-      <c r="T25" s="194"/>
-      <c r="U25" s="202"/>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A25" s="198"/>
+      <c r="B25" s="196"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="196"/>
+      <c r="L25" s="196"/>
+      <c r="M25" s="196"/>
+      <c r="N25" s="197"/>
+      <c r="O25" s="197"/>
+      <c r="P25" s="197"/>
+      <c r="Q25" s="196"/>
+      <c r="R25" s="196"/>
+      <c r="S25" s="196"/>
+      <c r="T25" s="196"/>
+      <c r="U25" s="193"/>
       <c r="AB25" s="44">
         <f>Consuntivo_2_PA!U22</f>
         <v>0</v>
@@ -12729,7 +13369,7 @@
         <f>Consuntivo_2_PA!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="183"/>
+      <c r="AL25" s="199"/>
       <c r="AO25" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12807,51 +13447,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60">
-      <c r="A26" s="192" t="s">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A26" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="194">
+      <c r="B26" s="196">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="194"/>
-      <c r="D26" s="194"/>
-      <c r="E26" s="194">
+      <c r="C26" s="196"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="196">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="194"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194">
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="194"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="193">
+      <c r="I26" s="196"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="197">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>33</v>
       </c>
-      <c r="L26" s="193"/>
-      <c r="M26" s="193"/>
-      <c r="N26" s="194">
+      <c r="L26" s="197"/>
+      <c r="M26" s="197"/>
+      <c r="N26" s="196">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="194"/>
-      <c r="P26" s="194"/>
-      <c r="Q26" s="194">
+      <c r="O26" s="196"/>
+      <c r="P26" s="196"/>
+      <c r="Q26" s="196">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="194"/>
-      <c r="S26" s="194"/>
-      <c r="T26" s="194">
+      <c r="R26" s="196"/>
+      <c r="S26" s="196"/>
+      <c r="T26" s="196">
         <f t="shared" ref="T26" si="33">SUM(B26:S27)</f>
         <v>97</v>
       </c>
-      <c r="U26" s="202"/>
+      <c r="U26" s="193"/>
       <c r="AB26" s="53" t="str">
         <f>Consuntivo_2_PA!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -12892,7 +13532,7 @@
         <f>Consuntivo_2_PA!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="183">
+      <c r="AL26" s="199">
         <f>Consuntivo_2_PA!AE23</f>
         <v>28</v>
       </c>
@@ -12973,28 +13613,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A27" s="192"/>
-      <c r="B27" s="194"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
-      <c r="M27" s="193"/>
-      <c r="N27" s="194"/>
-      <c r="O27" s="194"/>
-      <c r="P27" s="194"/>
-      <c r="Q27" s="194"/>
-      <c r="R27" s="194"/>
-      <c r="S27" s="194"/>
-      <c r="T27" s="194"/>
-      <c r="U27" s="202"/>
+    <row r="27" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="198"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="197"/>
+      <c r="M27" s="197"/>
+      <c r="N27" s="196"/>
+      <c r="O27" s="196"/>
+      <c r="P27" s="196"/>
+      <c r="Q27" s="196"/>
+      <c r="R27" s="196"/>
+      <c r="S27" s="196"/>
+      <c r="T27" s="196"/>
+      <c r="U27" s="193"/>
       <c r="AB27" s="75">
         <f>Consuntivo_2_PA!U24</f>
         <v>0</v>
@@ -13035,7 +13675,7 @@
         <f>Consuntivo_2_PA!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="184"/>
+      <c r="AL27" s="213"/>
       <c r="AO27" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13113,97 +13753,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A28" s="192" t="s">
+    <row r="28" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="194">
+      <c r="B28" s="196">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="194"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="194">
+      <c r="C28" s="196"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="196">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194">
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>2</v>
       </c>
-      <c r="I28" s="194"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="194">
+      <c r="I28" s="196"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="196">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="194"/>
-      <c r="M28" s="194"/>
-      <c r="N28" s="194">
+      <c r="L28" s="196"/>
+      <c r="M28" s="196"/>
+      <c r="N28" s="196">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="194"/>
-      <c r="P28" s="194"/>
-      <c r="Q28" s="193">
+      <c r="O28" s="196"/>
+      <c r="P28" s="196"/>
+      <c r="Q28" s="197">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="193"/>
-      <c r="S28" s="193"/>
-      <c r="T28" s="194">
+      <c r="R28" s="197"/>
+      <c r="S28" s="197"/>
+      <c r="T28" s="196">
         <f t="shared" ref="T28" si="34">SUM(B28:S29)</f>
         <v>96</v>
       </c>
-      <c r="U28" s="202"/>
+      <c r="U28" s="193"/>
       <c r="BG28" s="144">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60">
-      <c r="A29" s="192"/>
-      <c r="B29" s="194"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="194"/>
-      <c r="L29" s="194"/>
-      <c r="M29" s="194"/>
-      <c r="N29" s="194"/>
-      <c r="O29" s="194"/>
-      <c r="P29" s="194"/>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="193"/>
-      <c r="T29" s="194"/>
-      <c r="U29" s="202"/>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A29" s="198"/>
+      <c r="B29" s="196"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="196"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="196"/>
+      <c r="N29" s="196"/>
+      <c r="O29" s="196"/>
+      <c r="P29" s="196"/>
+      <c r="Q29" s="197"/>
+      <c r="R29" s="197"/>
+      <c r="S29" s="197"/>
+      <c r="T29" s="196"/>
+      <c r="U29" s="193"/>
       <c r="AA29" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="185" t="str">
+      <c r="AC29" s="207" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="186"/>
-      <c r="AE29" s="187"/>
-      <c r="AF29" s="185" t="str">
+      <c r="AD29" s="208"/>
+      <c r="AE29" s="209"/>
+      <c r="AF29" s="207" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="186"/>
-      <c r="AH29" s="188"/>
-      <c r="AI29" s="189" t="str">
+      <c r="AG29" s="208"/>
+      <c r="AH29" s="210"/>
+      <c r="AI29" s="203" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -13212,51 +13852,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A30" s="192" t="s">
+    <row r="30" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="194">
+      <c r="B30" s="196">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="194"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="194">
+      <c r="C30" s="196"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="196">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="194"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194">
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="194"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="193">
+      <c r="I30" s="196"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="197">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>31</v>
       </c>
-      <c r="L30" s="193"/>
-      <c r="M30" s="193"/>
-      <c r="N30" s="193">
+      <c r="L30" s="197"/>
+      <c r="M30" s="197"/>
+      <c r="N30" s="197">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="193"/>
-      <c r="P30" s="193"/>
-      <c r="Q30" s="194">
+      <c r="O30" s="197"/>
+      <c r="P30" s="197"/>
+      <c r="Q30" s="196">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="194"/>
-      <c r="S30" s="194"/>
-      <c r="T30" s="194">
+      <c r="R30" s="196"/>
+      <c r="S30" s="196"/>
+      <c r="T30" s="196">
         <f t="shared" ref="T30" si="35">SUM(B30:S31)</f>
         <v>103</v>
       </c>
-      <c r="U30" s="202"/>
+      <c r="U30" s="193"/>
       <c r="AB30" s="141"/>
       <c r="AC30" s="40" t="str">
         <f>'3_PDC'!U7</f>
@@ -13282,7 +13922,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="190"/>
+      <c r="AI30" s="204"/>
       <c r="AK30" s="5">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -13292,28 +13932,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60">
-      <c r="A31" s="192"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="193"/>
-      <c r="M31" s="193"/>
-      <c r="N31" s="193"/>
-      <c r="O31" s="193"/>
-      <c r="P31" s="193"/>
-      <c r="Q31" s="194"/>
-      <c r="R31" s="194"/>
-      <c r="S31" s="194"/>
-      <c r="T31" s="194"/>
-      <c r="U31" s="202"/>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A31" s="198"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="197"/>
+      <c r="L31" s="197"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="197"/>
+      <c r="O31" s="197"/>
+      <c r="P31" s="197"/>
+      <c r="Q31" s="196"/>
+      <c r="R31" s="196"/>
+      <c r="S31" s="196"/>
+      <c r="T31" s="196"/>
+      <c r="U31" s="193"/>
       <c r="AB31" s="44" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -13342,7 +13982,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="191">
+      <c r="AI31" s="211">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -13427,51 +14067,51 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:60">
-      <c r="A32" s="192" t="s">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A32" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="194">
+      <c r="B32" s="196">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194">
+      <c r="C32" s="196"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="196">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194">
+      <c r="F32" s="196"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="196">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>2</v>
       </c>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="194">
+      <c r="I32" s="196"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="196">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>20</v>
       </c>
-      <c r="L32" s="194"/>
-      <c r="M32" s="194"/>
-      <c r="N32" s="193">
+      <c r="L32" s="196"/>
+      <c r="M32" s="196"/>
+      <c r="N32" s="197">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="193"/>
-      <c r="P32" s="193"/>
-      <c r="Q32" s="194">
+      <c r="O32" s="197"/>
+      <c r="P32" s="197"/>
+      <c r="Q32" s="196">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="194"/>
-      <c r="S32" s="194"/>
-      <c r="T32" s="194">
+      <c r="R32" s="196"/>
+      <c r="S32" s="196"/>
+      <c r="T32" s="196">
         <f t="shared" ref="T32" si="51">SUM(B32:S33)</f>
         <v>102</v>
       </c>
-      <c r="U32" s="202"/>
+      <c r="U32" s="193"/>
       <c r="AB32" s="49">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -13500,7 +14140,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="183"/>
+      <c r="AI32" s="199"/>
       <c r="AO32" s="5">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -13578,28 +14218,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:60">
-      <c r="A33" s="192"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="194"/>
-      <c r="M33" s="194"/>
-      <c r="N33" s="193"/>
-      <c r="O33" s="193"/>
-      <c r="P33" s="193"/>
-      <c r="Q33" s="194"/>
-      <c r="R33" s="194"/>
-      <c r="S33" s="194"/>
-      <c r="T33" s="194"/>
-      <c r="U33" s="202"/>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A33" s="198"/>
+      <c r="B33" s="196"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="196"/>
+      <c r="M33" s="196"/>
+      <c r="N33" s="197"/>
+      <c r="O33" s="197"/>
+      <c r="P33" s="197"/>
+      <c r="Q33" s="196"/>
+      <c r="R33" s="196"/>
+      <c r="S33" s="196"/>
+      <c r="T33" s="196"/>
+      <c r="U33" s="193"/>
       <c r="AB33" s="44" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -13628,7 +14268,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="183">
+      <c r="AI33" s="199">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -13709,51 +14349,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:60">
-      <c r="A34" s="192" t="s">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A34" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="194">
+      <c r="B34" s="196">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194">
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194"/>
-      <c r="H34" s="194">
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="194"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="193">
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="197">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>27</v>
       </c>
-      <c r="L34" s="193"/>
-      <c r="M34" s="193"/>
-      <c r="N34" s="193">
+      <c r="L34" s="197"/>
+      <c r="M34" s="197"/>
+      <c r="N34" s="197">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="193"/>
-      <c r="P34" s="193"/>
-      <c r="Q34" s="193">
+      <c r="O34" s="197"/>
+      <c r="P34" s="197"/>
+      <c r="Q34" s="197">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="193"/>
-      <c r="S34" s="193"/>
-      <c r="T34" s="194">
+      <c r="R34" s="197"/>
+      <c r="S34" s="197"/>
+      <c r="T34" s="196">
         <f t="shared" ref="T34" si="55">SUM(B34:S35)</f>
         <v>100</v>
       </c>
-      <c r="U34" s="202"/>
+      <c r="U34" s="193"/>
       <c r="AB34" s="44">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -13782,7 +14422,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="183"/>
+      <c r="AI34" s="199"/>
       <c r="AO34" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13860,28 +14500,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:60">
-      <c r="A35" s="192"/>
-      <c r="B35" s="194"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="193"/>
-      <c r="L35" s="193"/>
-      <c r="M35" s="193"/>
-      <c r="N35" s="193"/>
-      <c r="O35" s="193"/>
-      <c r="P35" s="193"/>
-      <c r="Q35" s="193"/>
-      <c r="R35" s="193"/>
-      <c r="S35" s="193"/>
-      <c r="T35" s="194"/>
-      <c r="U35" s="202"/>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A35" s="198"/>
+      <c r="B35" s="196"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="197"/>
+      <c r="L35" s="197"/>
+      <c r="M35" s="197"/>
+      <c r="N35" s="197"/>
+      <c r="O35" s="197"/>
+      <c r="P35" s="197"/>
+      <c r="Q35" s="197"/>
+      <c r="R35" s="197"/>
+      <c r="S35" s="197"/>
+      <c r="T35" s="196"/>
+      <c r="U35" s="193"/>
       <c r="AB35" s="53" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -13910,7 +14550,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="183">
+      <c r="AI35" s="199">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -13998,51 +14638,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:60">
-      <c r="A36" s="192" t="s">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A36" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="194">
+      <c r="B36" s="196">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194">
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194">
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="194"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="193">
+      <c r="I36" s="196"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="197">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="193"/>
-      <c r="M36" s="193"/>
-      <c r="N36" s="194">
+      <c r="L36" s="197"/>
+      <c r="M36" s="197"/>
+      <c r="N36" s="196">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="194"/>
-      <c r="P36" s="194"/>
-      <c r="Q36" s="194">
+      <c r="O36" s="196"/>
+      <c r="P36" s="196"/>
+      <c r="Q36" s="196">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="194"/>
-      <c r="S36" s="194"/>
-      <c r="T36" s="194">
+      <c r="R36" s="196"/>
+      <c r="S36" s="196"/>
+      <c r="T36" s="196">
         <f t="shared" ref="T36" si="56">SUM(B36:S37)</f>
         <v>96</v>
       </c>
-      <c r="U36" s="202"/>
+      <c r="U36" s="193"/>
       <c r="AB36" s="49">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -14071,7 +14711,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="183"/>
+      <c r="AI36" s="199"/>
       <c r="AK36" s="5">
         <f>SUM(BD31:BF44)</f>
         <v>100</v>
@@ -14153,28 +14793,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:60">
-      <c r="A37" s="192"/>
-      <c r="B37" s="194"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="193"/>
-      <c r="L37" s="193"/>
-      <c r="M37" s="193"/>
-      <c r="N37" s="194"/>
-      <c r="O37" s="194"/>
-      <c r="P37" s="194"/>
-      <c r="Q37" s="194"/>
-      <c r="R37" s="194"/>
-      <c r="S37" s="194"/>
-      <c r="T37" s="194"/>
-      <c r="U37" s="202"/>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A37" s="198"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="197"/>
+      <c r="L37" s="197"/>
+      <c r="M37" s="197"/>
+      <c r="N37" s="196"/>
+      <c r="O37" s="196"/>
+      <c r="P37" s="196"/>
+      <c r="Q37" s="196"/>
+      <c r="R37" s="196"/>
+      <c r="S37" s="196"/>
+      <c r="T37" s="196"/>
+      <c r="U37" s="193"/>
       <c r="AB37" s="44" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -14203,7 +14843,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="183">
+      <c r="AI37" s="199">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -14284,51 +14924,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:60">
-      <c r="A38" s="201" t="s">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A38" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="194">
+      <c r="B38" s="196">
         <f>SUM(B24:D37)</f>
         <v>59</v>
       </c>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194">
+      <c r="C38" s="196"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196">
         <f t="shared" ref="E38" si="57">SUM(E24:G37)</f>
         <v>49</v>
       </c>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194">
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196">
         <f>SUM(H24:J37)</f>
         <v>20</v>
       </c>
-      <c r="I38" s="194"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="194">
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="196">
         <f t="shared" ref="K38" si="58">SUM(K24:M37)</f>
         <v>199</v>
       </c>
-      <c r="L38" s="194"/>
-      <c r="M38" s="194"/>
-      <c r="N38" s="194">
+      <c r="L38" s="196"/>
+      <c r="M38" s="196"/>
+      <c r="N38" s="196">
         <f t="shared" ref="N38" si="59">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="194"/>
-      <c r="P38" s="194"/>
-      <c r="Q38" s="194">
+      <c r="O38" s="196"/>
+      <c r="P38" s="196"/>
+      <c r="Q38" s="196">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="194"/>
-      <c r="S38" s="194"/>
-      <c r="T38" s="194">
+      <c r="R38" s="196"/>
+      <c r="S38" s="196"/>
+      <c r="T38" s="196">
         <f>SUM(B38:S39)</f>
         <v>690</v>
       </c>
-      <c r="U38" s="202"/>
+      <c r="U38" s="193"/>
       <c r="AB38" s="44">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -14357,7 +14997,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="183"/>
+      <c r="AI38" s="199"/>
       <c r="AO38" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14435,28 +15075,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:60">
-      <c r="A39" s="201"/>
-      <c r="B39" s="194"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="194"/>
-      <c r="L39" s="194"/>
-      <c r="M39" s="194"/>
-      <c r="N39" s="194"/>
-      <c r="O39" s="194"/>
-      <c r="P39" s="194"/>
-      <c r="Q39" s="194"/>
-      <c r="R39" s="194"/>
-      <c r="S39" s="194"/>
-      <c r="T39" s="194"/>
-      <c r="U39" s="202"/>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A39" s="195"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="196"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="196"/>
+      <c r="M39" s="196"/>
+      <c r="N39" s="196"/>
+      <c r="O39" s="196"/>
+      <c r="P39" s="196"/>
+      <c r="Q39" s="196"/>
+      <c r="R39" s="196"/>
+      <c r="S39" s="196"/>
+      <c r="T39" s="196"/>
+      <c r="U39" s="193"/>
       <c r="AB39" s="53" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -14485,7 +15125,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="183">
+      <c r="AI39" s="199">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -14566,7 +15206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:60">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" s="139"/>
       <c r="AB40" s="49">
         <f>'3_PDC'!T17</f>
@@ -14596,7 +15236,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="183"/>
+      <c r="AI40" s="199"/>
       <c r="AO40" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14674,7 +15314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:60">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" s="139"/>
       <c r="AB41" s="44" t="str">
         <f>'3_PDC'!T18</f>
@@ -14704,7 +15344,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="183">
+      <c r="AI41" s="199">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -14785,7 +15425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:60">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A42" s="139"/>
       <c r="AB42" s="44">
         <f>'3_PDC'!T19</f>
@@ -14815,7 +15455,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="183"/>
+      <c r="AI42" s="199"/>
       <c r="AO42" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14893,7 +15533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:60">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A43" s="139"/>
       <c r="AB43" s="53" t="str">
         <f>'3_PDC'!T20</f>
@@ -14923,7 +15563,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="183">
+      <c r="AI43" s="199">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -15004,7 +15644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="13.5" thickBot="1">
+    <row r="44" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="139"/>
       <c r="AB44" s="75">
         <f>'3_PDC'!T21</f>
@@ -15034,7 +15674,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="184"/>
+      <c r="AI44" s="213"/>
       <c r="AO44" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15112,14 +15752,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="13.5" thickBot="1">
+    <row r="45" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="139"/>
       <c r="BG45" s="144">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A46" s="139"/>
       <c r="AA46" s="5" t="s">
         <v>125</v>
@@ -15127,19 +15767,19 @@
       <c r="AB46" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="185" t="str">
+      <c r="AC46" s="207" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="186"/>
-      <c r="AE46" s="187"/>
-      <c r="AF46" s="185" t="str">
+      <c r="AD46" s="208"/>
+      <c r="AE46" s="209"/>
+      <c r="AF46" s="207" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="186"/>
-      <c r="AH46" s="188"/>
-      <c r="AI46" s="189" t="str">
+      <c r="AG46" s="208"/>
+      <c r="AH46" s="210"/>
+      <c r="AI46" s="203" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -15152,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="13.5" thickBot="1">
+    <row r="47" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="139"/>
       <c r="AB47" s="141"/>
       <c r="AC47" s="40" t="str">
@@ -15179,13 +15819,13 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="190"/>
+      <c r="AI47" s="204"/>
       <c r="BG47" s="144">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A48" s="139"/>
       <c r="AB48" s="44" t="str">
         <f>'4_VV'!T5</f>
@@ -15215,7 +15855,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="191">
+      <c r="AI48" s="211">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -15300,7 +15940,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="20:59">
+    <row r="49" spans="20:59" x14ac:dyDescent="0.2">
       <c r="AB49" s="49">
         <f>'4_VV'!T6</f>
         <v>0</v>
@@ -15329,7 +15969,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="183"/>
+      <c r="AI49" s="199"/>
       <c r="AO49" s="5">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -15407,7 +16047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="20:59" ht="13.5" thickBot="1">
+    <row r="50" spans="20:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB50" s="44" t="str">
         <f>'4_VV'!T7</f>
         <v>Facchin Gabriele</v>
@@ -15436,7 +16076,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="183">
+      <c r="AI50" s="199">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -15524,7 +16164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="20:59" ht="13.5" thickBot="1">
+    <row r="51" spans="20:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="T51" s="1" t="s">
         <v>26</v>
       </c>
@@ -15565,7 +16205,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="183"/>
+      <c r="AI51" s="199"/>
       <c r="AO51" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15643,7 +16283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="20:59">
+    <row r="52" spans="20:59" x14ac:dyDescent="0.2">
       <c r="T52" s="14" t="s">
         <v>1</v>
       </c>
@@ -15686,7 +16326,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="183">
+      <c r="AI52" s="199">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -15767,7 +16407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="20:59">
+    <row r="53" spans="20:59" x14ac:dyDescent="0.2">
       <c r="T53" s="21" t="s">
         <v>2</v>
       </c>
@@ -15810,7 +16450,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="183"/>
+      <c r="AI53" s="199"/>
       <c r="AO53" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15888,7 +16528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="20:59">
+    <row r="54" spans="20:59" x14ac:dyDescent="0.2">
       <c r="T54" s="21" t="s">
         <v>3</v>
       </c>
@@ -15931,7 +16571,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="183">
+      <c r="AI54" s="199">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -16012,7 +16652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="20:59">
+    <row r="55" spans="20:59" x14ac:dyDescent="0.2">
       <c r="T55" s="21" t="s">
         <v>4</v>
       </c>
@@ -16055,7 +16695,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="183"/>
+      <c r="AI55" s="199"/>
       <c r="AO55" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16133,7 +16773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="20:59">
+    <row r="56" spans="20:59" x14ac:dyDescent="0.2">
       <c r="T56" s="21" t="s">
         <v>5</v>
       </c>
@@ -16176,7 +16816,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="183">
+      <c r="AI56" s="199">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -16257,7 +16897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="20:59" ht="13.5" thickBot="1">
+    <row r="57" spans="20:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="T57" s="17" t="s">
         <v>6</v>
       </c>
@@ -16300,7 +16940,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="183"/>
+      <c r="AI57" s="199"/>
       <c r="AO57" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16378,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="20:59" ht="13.5" thickBot="1">
+    <row r="58" spans="20:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="T58" s="1" t="s">
         <v>14</v>
       </c>
@@ -16418,7 +17058,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="183">
+      <c r="AI58" s="199">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -16499,7 +17139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="20:59">
+    <row r="59" spans="20:59" x14ac:dyDescent="0.2">
       <c r="AB59" s="44">
         <f>'4_VV'!T16</f>
         <v>0</v>
@@ -16528,7 +17168,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="183"/>
+      <c r="AI59" s="199"/>
       <c r="AO59" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16606,7 +17246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="20:59">
+    <row r="60" spans="20:59" x14ac:dyDescent="0.2">
       <c r="AB60" s="53" t="str">
         <f>'4_VV'!T17</f>
         <v>Maggiolo Giorgio</v>
@@ -16635,7 +17275,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="183">
+      <c r="AI60" s="199">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -16716,7 +17356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="20:59" ht="13.5" thickBot="1">
+    <row r="61" spans="20:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB61" s="75">
         <f>'4_VV'!T18</f>
         <v>0</v>
@@ -16745,7 +17385,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="184"/>
+      <c r="AI61" s="213"/>
       <c r="AO61" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16825,24 +17465,76 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N30:P31"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -16867,76 +17559,24 @@
     <mergeCell ref="H34:J35"/>
     <mergeCell ref="K34:M35"/>
     <mergeCell ref="N34:P35"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
@@ -16967,14 +17607,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="5" customWidth="1"/>
@@ -16997,7 +17637,7 @@
     <col min="22" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>15</v>
       </c>
@@ -17032,7 +17672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>75</v>
       </c>
@@ -17075,24 +17715,24 @@
       <c r="N2" s="6">
         <v>30</v>
       </c>
-      <c r="O2" s="189" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="195" t="s">
+      <c r="O2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="197"/>
-      <c r="S2" s="195" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="196"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="189" t="s">
+      <c r="T2" s="201"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="203" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="13.5" thickBot="1">
+    <row r="3" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="24"/>
       <c r="C3" s="15" t="s">
@@ -17131,7 +17771,7 @@
       <c r="N3" s="6">
         <v>20</v>
       </c>
-      <c r="O3" s="204"/>
+      <c r="O3" s="214"/>
       <c r="P3" s="87" t="s">
         <v>26</v>
       </c>
@@ -17150,9 +17790,9 @@
       <c r="U3" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="190"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="V3" s="204"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>77</v>
       </c>
@@ -17221,7 +17861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="13.5" thickBot="1">
+    <row r="5" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="24"/>
       <c r="C5" s="15" t="s">
@@ -17286,7 +17926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="13.5" thickBot="1">
+    <row r="6" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>81</v>
       </c>
@@ -17352,7 +17992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
@@ -17403,7 +18043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>83</v>
       </c>
@@ -17458,7 +18098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="24"/>
       <c r="C9" s="15" t="s">
@@ -17509,7 +18149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>85</v>
       </c>
@@ -17564,7 +18204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
@@ -17597,7 +18237,7 @@
       <c r="T11" s="107"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>87</v>
       </c>
@@ -17634,7 +18274,7 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>89</v>
       </c>
@@ -17671,7 +18311,7 @@
       <c r="T13" s="107"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
@@ -17704,7 +18344,7 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>91</v>
       </c>
@@ -17741,7 +18381,7 @@
       <c r="T15" s="107"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>93</v>
       </c>
@@ -17771,7 +18411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="13.5" thickBot="1">
+    <row r="17" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="110" t="s">
         <v>95</v>
       </c>
@@ -17808,13 +18448,13 @@
       <c r="T17" s="107"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" ht="13.5" thickBot="1">
+    <row r="18" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:21" ht="13.5" thickBot="1">
+    <row r="19" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>14</v>
       </c>
@@ -17854,14 +18494,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="5" customWidth="1"/>
@@ -17891,7 +18531,7 @@
     <col min="44" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="13.5" thickBot="1">
+    <row r="1" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -17941,7 +18581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>102</v>
       </c>
@@ -18003,7 +18643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>104</v>
       </c>
@@ -18060,7 +18700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="24"/>
       <c r="C4" s="15" t="s">
@@ -18116,7 +18756,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>106</v>
       </c>
@@ -18173,7 +18813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="13.5" thickBot="1">
+    <row r="6" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
@@ -18229,7 +18869,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.5" thickBot="1">
+    <row r="7" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>108</v>
       </c>
@@ -18292,7 +18932,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="13.5" thickBot="1">
+    <row r="8" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>110</v>
       </c>
@@ -18334,7 +18974,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>112</v>
       </c>
@@ -18377,29 +19017,29 @@
       <c r="P9" s="172"/>
       <c r="Q9" s="172"/>
       <c r="R9" s="172"/>
-      <c r="U9" s="189" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="185" t="s">
+      <c r="U9" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="186"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="185" t="s">
+      <c r="W9" s="208"/>
+      <c r="X9" s="209"/>
+      <c r="Y9" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="186"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="185" t="s">
+      <c r="Z9" s="208"/>
+      <c r="AA9" s="209"/>
+      <c r="AB9" s="207" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="186"/>
-      <c r="AD9" s="188"/>
-      <c r="AE9" s="189" t="s">
+      <c r="AC9" s="208"/>
+      <c r="AD9" s="210"/>
+      <c r="AE9" s="203" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="13.5" thickBot="1">
+    <row r="10" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="24"/>
       <c r="C10" s="15" t="s">
@@ -18438,7 +19078,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="U10" s="190"/>
+      <c r="U10" s="204"/>
       <c r="V10" s="40" t="s">
         <v>26</v>
       </c>
@@ -18466,9 +19106,9 @@
       <c r="AD10" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="190"/>
-    </row>
-    <row r="11" spans="1:31" ht="13.5" thickBot="1">
+      <c r="AE10" s="204"/>
+    </row>
+    <row r="11" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>115</v>
       </c>
@@ -18516,10 +19156,10 @@
       <c r="Q11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="206" t="s">
+      <c r="R11" s="215" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="202"/>
+      <c r="S11" s="193"/>
       <c r="U11" s="44" t="s">
         <v>7</v>
       </c>
@@ -18550,12 +19190,12 @@
       <c r="AD11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="191">
+      <c r="AE11" s="211">
         <f>SUM(Z11:Z12,AC11:AC12,W11:W12)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>117</v>
       </c>
@@ -18614,9 +19254,9 @@
       <c r="AB12" s="50"/>
       <c r="AC12" s="51"/>
       <c r="AD12" s="24"/>
-      <c r="AE12" s="183"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AE12" s="199"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="24"/>
       <c r="C13" s="15" t="s">
@@ -18691,12 +19331,12 @@
       <c r="AD13" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="183">
+      <c r="AE13" s="199">
         <f t="shared" ref="AE13" si="7">SUM(Z13:Z14,AC13:AC14,W13:W14)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>120</v>
       </c>
@@ -18761,9 +19401,9 @@
       <c r="AB14" s="45"/>
       <c r="AC14" s="46"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="183"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AE14" s="199"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>131</v>
       </c>
@@ -18842,12 +19482,12 @@
       <c r="AD15" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="AE15" s="183">
+      <c r="AE15" s="199">
         <f t="shared" ref="AE15" si="8">SUM(Z15:Z16,AC15:AC16,W15:W16)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="13.5" thickBot="1">
+    <row r="16" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
         <v>132</v>
       </c>
@@ -18918,9 +19558,9 @@
       <c r="AD16" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AE16" s="183"/>
-    </row>
-    <row r="17" spans="1:31" ht="13.5" thickBot="1">
+      <c r="AE16" s="199"/>
+    </row>
+    <row r="17" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>135</v>
       </c>
@@ -18999,12 +19639,12 @@
       <c r="AD17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AE17" s="183">
+      <c r="AE17" s="199">
         <f t="shared" ref="AE17" si="9">SUM(Z17:Z18,AC17:AC18,W17:W18)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="13.5" thickBot="1">
+    <row r="18" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="63"/>
       <c r="C18" s="64" t="s">
@@ -19065,9 +19705,9 @@
       <c r="AD18" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" s="183"/>
-    </row>
-    <row r="19" spans="1:31" ht="13.5" thickBot="1">
+      <c r="AE18" s="199"/>
+    </row>
+    <row r="19" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U19" s="53" t="s">
         <v>8</v>
       </c>
@@ -19098,12 +19738,12 @@
       <c r="AD19" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" s="183">
+      <c r="AE19" s="199">
         <f t="shared" ref="AE19" si="10">SUM(Z19:Z20,AC19:AC20,W19:W20)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="13.5" thickBot="1">
+    <row r="20" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>14</v>
       </c>
@@ -19145,9 +19785,9 @@
         <v>2</v>
       </c>
       <c r="AD20" s="24"/>
-      <c r="AE20" s="183"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AE20" s="199"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="U21" s="44" t="s">
         <v>13</v>
       </c>
@@ -19178,12 +19818,12 @@
       <c r="AD21" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="AE21" s="183">
+      <c r="AE21" s="199">
         <f t="shared" ref="AE21" si="11">SUM(Z21:Z22,AC21:AC22,W21:W22)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="S22" s="74"/>
       <c r="U22" s="44"/>
       <c r="V22" s="45"/>
@@ -19195,9 +19835,9 @@
       <c r="AB22" s="45"/>
       <c r="AC22" s="46"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="183"/>
-    </row>
-    <row r="23" spans="1:31" ht="13.5" thickBot="1">
+      <c r="AE22" s="199"/>
+    </row>
+    <row r="23" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U23" s="53" t="s">
         <v>12</v>
       </c>
@@ -19228,12 +19868,12 @@
       <c r="AD23" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AE23" s="183">
+      <c r="AE23" s="199">
         <f t="shared" ref="AE23" si="12">SUM(Z23:Z24,AC23:AC24,W23:W24)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="13.5" thickBot="1">
+    <row r="24" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -19295,9 +19935,9 @@
       <c r="AD24" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" s="184"/>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="AE24" s="213"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>102</v>
       </c>
@@ -19353,7 +19993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>104</v>
       </c>
@@ -19418,7 +20058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="24"/>
       <c r="C27" s="15" t="s">
@@ -19466,7 +20106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>106</v>
       </c>
@@ -19518,19 +20158,19 @@
       <c r="R28" s="6">
         <v>15</v>
       </c>
-      <c r="U28" s="205"/>
-      <c r="V28" s="205"/>
-      <c r="W28" s="205"/>
-      <c r="X28" s="205"/>
-      <c r="Y28" s="205"/>
-      <c r="Z28" s="205"/>
-      <c r="AA28" s="205"/>
-      <c r="AB28" s="205"/>
-      <c r="AC28" s="205"/>
-      <c r="AD28" s="205"/>
-      <c r="AE28" s="205"/>
-    </row>
-    <row r="29" spans="1:31" ht="13.5" thickBot="1">
+      <c r="U28" s="216"/>
+      <c r="V28" s="216"/>
+      <c r="W28" s="216"/>
+      <c r="X28" s="216"/>
+      <c r="Y28" s="216"/>
+      <c r="Z28" s="216"/>
+      <c r="AA28" s="216"/>
+      <c r="AB28" s="216"/>
+      <c r="AC28" s="216"/>
+      <c r="AD28" s="216"/>
+      <c r="AE28" s="216"/>
+    </row>
+    <row r="29" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9" t="s">
@@ -19577,7 +20217,7 @@
       <c r="R29" s="6">
         <v>22</v>
       </c>
-      <c r="U29" s="205"/>
+      <c r="U29" s="216"/>
       <c r="V29" s="73"/>
       <c r="W29" s="73"/>
       <c r="X29" s="73"/>
@@ -19587,9 +20227,9 @@
       <c r="AB29" s="73"/>
       <c r="AC29" s="73"/>
       <c r="AD29" s="73"/>
-      <c r="AE29" s="205"/>
-    </row>
-    <row r="30" spans="1:31" ht="13.5" thickBot="1">
+      <c r="AE29" s="216"/>
+    </row>
+    <row r="30" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>108</v>
       </c>
@@ -19650,9 +20290,9 @@
       <c r="AB30" s="73"/>
       <c r="AC30" s="73"/>
       <c r="AD30" s="73"/>
-      <c r="AE30" s="205"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AE30" s="216"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>110</v>
       </c>
@@ -19702,9 +20342,9 @@
       <c r="AB31" s="73"/>
       <c r="AC31" s="73"/>
       <c r="AD31" s="73"/>
-      <c r="AE31" s="205"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AE31" s="216"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>112</v>
       </c>
@@ -19752,9 +20392,9 @@
       <c r="AB32" s="73"/>
       <c r="AC32" s="73"/>
       <c r="AD32" s="73"/>
-      <c r="AE32" s="205"/>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AE32" s="216"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="24"/>
       <c r="C33" s="15" t="s">
@@ -19798,9 +20438,9 @@
       <c r="AB33" s="73"/>
       <c r="AC33" s="73"/>
       <c r="AD33" s="73"/>
-      <c r="AE33" s="205"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AE33" s="216"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>115</v>
       </c>
@@ -19848,9 +20488,9 @@
       <c r="AB34" s="73"/>
       <c r="AC34" s="73"/>
       <c r="AD34" s="73"/>
-      <c r="AE34" s="205"/>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="AE34" s="216"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>117</v>
       </c>
@@ -19898,9 +20538,9 @@
       <c r="AB35" s="73"/>
       <c r="AC35" s="73"/>
       <c r="AD35" s="73"/>
-      <c r="AE35" s="205"/>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="AE35" s="216"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="24"/>
       <c r="C36" s="15" t="s">
@@ -19944,9 +20584,9 @@
       <c r="AB36" s="73"/>
       <c r="AC36" s="73"/>
       <c r="AD36" s="73"/>
-      <c r="AE36" s="205"/>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="AE36" s="216"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>120</v>
       </c>
@@ -19994,9 +20634,9 @@
       <c r="AB37" s="73"/>
       <c r="AC37" s="73"/>
       <c r="AD37" s="181"/>
-      <c r="AE37" s="205"/>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="AE37" s="216"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>131</v>
       </c>
@@ -20044,9 +20684,9 @@
       <c r="AB38" s="73"/>
       <c r="AC38" s="73"/>
       <c r="AD38" s="73"/>
-      <c r="AE38" s="205"/>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="AE38" s="216"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="59" t="s">
         <v>132</v>
       </c>
@@ -20094,9 +20734,9 @@
       <c r="AB39" s="73"/>
       <c r="AC39" s="73"/>
       <c r="AD39" s="73"/>
-      <c r="AE39" s="205"/>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="AE39" s="216"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>135</v>
       </c>
@@ -20144,9 +20784,9 @@
       <c r="AB40" s="73"/>
       <c r="AC40" s="73"/>
       <c r="AD40" s="73"/>
-      <c r="AE40" s="205"/>
-    </row>
-    <row r="41" spans="1:31" ht="13.5" thickBot="1">
+      <c r="AE40" s="216"/>
+    </row>
+    <row r="41" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="63"/>
       <c r="C41" s="64" t="s">
@@ -20190,9 +20830,9 @@
       <c r="AB41" s="73"/>
       <c r="AC41" s="73"/>
       <c r="AD41" s="73"/>
-      <c r="AE41" s="205"/>
-    </row>
-    <row r="42" spans="1:31" ht="13.5" thickBot="1">
+      <c r="AE41" s="216"/>
+    </row>
+    <row r="42" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U42" s="73"/>
       <c r="V42" s="73"/>
       <c r="W42" s="73"/>
@@ -20203,9 +20843,9 @@
       <c r="AB42" s="73"/>
       <c r="AC42" s="73"/>
       <c r="AD42" s="73"/>
-      <c r="AE42" s="205"/>
-    </row>
-    <row r="43" spans="1:31" ht="13.5" thickBot="1">
+      <c r="AE42" s="216"/>
+    </row>
+    <row r="43" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="70" t="s">
         <v>14</v>
       </c>
@@ -20233,9 +20873,9 @@
       <c r="AB43" s="73"/>
       <c r="AC43" s="73"/>
       <c r="AD43" s="73"/>
-      <c r="AE43" s="205"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AE43" s="216"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="U44" s="73"/>
       <c r="V44" s="73"/>
       <c r="W44" s="73"/>
@@ -20250,11 +20890,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="AE42:AE43"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AE29"/>
     <mergeCell ref="AE21:AE22"/>
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AE9:AE10"/>
@@ -20263,18 +20910,11 @@
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="AE42:AE43"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Z26">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="notEqual">
@@ -20315,14 +20955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="5" customWidth="1"/>
@@ -20350,7 +20990,7 @@
     <col min="27" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13.5" thickBot="1">
+    <row r="1" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -20369,7 +21009,7 @@
       <c r="F1" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="219"/>
+      <c r="G1" s="190"/>
       <c r="H1" s="6" t="s">
         <v>21</v>
       </c>
@@ -20398,7 +21038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -20416,7 +21056,7 @@
         <f>SUM(D2:E2)</f>
         <v>8</v>
       </c>
-      <c r="G2" s="220"/>
+      <c r="G2" s="191"/>
       <c r="H2" s="6">
         <f>IF($C2="Responsabile",$F2,0)</f>
         <v>0</v>
@@ -20452,7 +21092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
@@ -20466,7 +21106,7 @@
         <f t="shared" ref="F3:F26" si="0">SUM(D3:E3)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="220"/>
+      <c r="G3" s="191"/>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H26" si="1">IF($C3="Responsabile",$F3,0)</f>
         <v>2</v>
@@ -20502,7 +21142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>32</v>
       </c>
@@ -20512,7 +21152,7 @@
       <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="213">
+      <c r="D4" s="184">
         <v>55</v>
       </c>
       <c r="E4" s="119"/>
@@ -20520,7 +21160,7 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G4" s="220" t="s">
+      <c r="G4" s="191" t="s">
         <v>151</v>
       </c>
       <c r="H4" s="6">
@@ -20558,7 +21198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="13.5" thickBot="1">
+    <row r="5" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
@@ -20568,7 +21208,7 @@
       <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="212">
+      <c r="D5" s="183">
         <v>20</v>
       </c>
       <c r="E5" s="117"/>
@@ -20576,7 +21216,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G5" s="220" t="s">
+      <c r="G5" s="191" t="s">
         <v>151</v>
       </c>
       <c r="H5" s="6">
@@ -20614,7 +21254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="13.5" thickBot="1">
+    <row r="6" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
@@ -20628,7 +21268,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G6" s="220"/>
+      <c r="G6" s="191"/>
       <c r="H6" s="6">
         <f>IF($C6="Responsabile",$F6,0)</f>
         <v>2</v>
@@ -20663,24 +21303,24 @@
       <c r="R6" s="6">
         <v>15</v>
       </c>
-      <c r="T6" s="189" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="185" t="s">
+      <c r="T6" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="186"/>
-      <c r="W6" s="187"/>
-      <c r="X6" s="185" t="s">
+      <c r="V6" s="208"/>
+      <c r="W6" s="209"/>
+      <c r="X6" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="186"/>
-      <c r="Z6" s="188"/>
-      <c r="AA6" s="189" t="s">
+      <c r="Y6" s="208"/>
+      <c r="Z6" s="210"/>
+      <c r="AA6" s="203" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="13.5" thickBot="1">
+    <row r="7" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>36</v>
       </c>
@@ -20698,7 +21338,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G7" s="220"/>
+      <c r="G7" s="191"/>
       <c r="H7" s="6">
         <f>IF($C7="Responsabile",$F7,0)</f>
         <v>0</v>
@@ -20730,7 +21370,7 @@
         <f>SUM(Q2:Q6)</f>
         <v>6992</v>
       </c>
-      <c r="T7" s="190"/>
+      <c r="T7" s="204"/>
       <c r="U7" s="40" t="s">
         <v>26</v>
       </c>
@@ -20749,9 +21389,9 @@
       <c r="Z7" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="190"/>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7" s="204"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -20761,7 +21401,7 @@
       <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="212">
+      <c r="D8" s="183">
         <v>8</v>
       </c>
       <c r="E8" s="117"/>
@@ -20769,7 +21409,7 @@
         <f>SUM(D8:E8)</f>
         <v>8</v>
       </c>
-      <c r="G8" s="220" t="s">
+      <c r="G8" s="191" t="s">
         <v>152</v>
       </c>
       <c r="H8" s="6">
@@ -20813,12 +21453,12 @@
       <c r="Z8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="191">
+      <c r="AA8" s="211">
         <f>SUM(V8:V9,Y8:Y9)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
@@ -20832,7 +21472,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G9" s="220"/>
+      <c r="G9" s="191"/>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -20866,9 +21506,9 @@
       <c r="Z9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="183"/>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9" s="199"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
@@ -20886,7 +21526,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G10" s="220"/>
+      <c r="G10" s="191"/>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20928,12 +21568,12 @@
       <c r="Z10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="183">
+      <c r="AA10" s="199">
         <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="13.5" thickBot="1">
+    <row r="11" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>46</v>
       </c>
@@ -20951,7 +21591,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="219"/>
+      <c r="G11" s="190"/>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20991,9 +21631,9 @@
       <c r="Z11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="183"/>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11" s="199"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="24"/>
       <c r="C12" s="15" t="s">
@@ -21007,7 +21647,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="219"/>
+      <c r="G12" s="190"/>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21028,9 +21668,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="207"/>
-      <c r="P12" s="209"/>
-      <c r="Q12" s="210"/>
+      <c r="O12" s="217"/>
+      <c r="P12" s="219"/>
+      <c r="Q12" s="220"/>
       <c r="T12" s="53" t="s">
         <v>49</v>
       </c>
@@ -21052,12 +21692,12 @@
       <c r="Z12" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="183">
+      <c r="AA12" s="199">
         <f t="shared" ref="AA12" si="8">SUM(V12:V13,Y12:Y13)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="13.5" thickBot="1">
+    <row r="13" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>50</v>
       </c>
@@ -21067,7 +21707,7 @@
       <c r="C13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="216">
+      <c r="D13" s="187">
         <v>65</v>
       </c>
       <c r="E13" s="119"/>
@@ -21075,7 +21715,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G13" s="221" t="s">
+      <c r="G13" s="192" t="s">
         <v>153</v>
       </c>
       <c r="H13" s="6">
@@ -21098,7 +21738,7 @@
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="O13" s="208"/>
+      <c r="O13" s="218"/>
       <c r="P13" s="112"/>
       <c r="Q13" s="124"/>
       <c r="T13" s="49"/>
@@ -21120,9 +21760,9 @@
       <c r="Z13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="183"/>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13" s="199"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>53</v>
       </c>
@@ -21140,7 +21780,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G14" s="221"/>
+      <c r="G14" s="192"/>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21185,12 +21825,12 @@
       <c r="Z14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="183">
+      <c r="AA14" s="199">
         <f t="shared" ref="AA14" si="9">SUM(V14:V15,Y14:Y15)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="126"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
@@ -21204,7 +21844,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G15" s="221"/>
+      <c r="G15" s="192"/>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -21247,9 +21887,9 @@
       <c r="Z15" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="183"/>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15" s="199"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>48</v>
       </c>
@@ -21260,14 +21900,14 @@
         <v>6</v>
       </c>
       <c r="D16" s="118"/>
-      <c r="E16" s="215">
+      <c r="E16" s="186">
         <v>45</v>
       </c>
       <c r="F16" s="108">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G16" s="221" t="s">
+      <c r="G16" s="192" t="s">
         <v>153</v>
       </c>
       <c r="H16" s="6">
@@ -21314,12 +21954,12 @@
       <c r="Z16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" s="183">
+      <c r="AA16" s="199">
         <f t="shared" ref="AA16" si="10">SUM(V16:V17,Y16:Y17)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
@@ -21337,7 +21977,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G17" s="221"/>
+      <c r="G17" s="192"/>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21380,9 +22020,9 @@
       <c r="Z17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="183"/>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17" s="199"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9" t="s">
@@ -21396,7 +22036,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G18" s="221"/>
+      <c r="G18" s="192"/>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -21441,12 +22081,12 @@
       <c r="Z18" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="183">
+      <c r="AA18" s="199">
         <f t="shared" ref="AA18" si="11">SUM(V18:V19,Y18:Y19)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>55</v>
       </c>
@@ -21457,14 +22097,14 @@
         <v>4</v>
       </c>
       <c r="D19" s="18"/>
-      <c r="E19" s="217">
+      <c r="E19" s="188">
         <v>5</v>
       </c>
       <c r="F19" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="221" t="s">
+      <c r="G19" s="192" t="s">
         <v>154</v>
       </c>
       <c r="H19" s="6">
@@ -21509,9 +22149,9 @@
       <c r="Z19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="183"/>
-    </row>
-    <row r="20" spans="1:27" ht="13.5" thickBot="1">
+      <c r="AA19" s="199"/>
+    </row>
+    <row r="20" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="24"/>
       <c r="C20" s="15" t="s">
@@ -21525,7 +22165,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G20" s="221"/>
+      <c r="G20" s="192"/>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -21570,12 +22210,12 @@
       <c r="Z20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="183">
+      <c r="AA20" s="199">
         <f t="shared" ref="AA20" si="12">SUM(V20:V21,Y20:Y21)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="13.5" thickBot="1">
+    <row r="21" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>58</v>
       </c>
@@ -21586,14 +22226,14 @@
         <v>1</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="214">
+      <c r="E21" s="185">
         <v>6</v>
       </c>
       <c r="F21" s="47">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G21" s="221" t="s">
+      <c r="G21" s="192" t="s">
         <v>155</v>
       </c>
       <c r="H21" s="6">
@@ -21632,9 +22272,9 @@
       <c r="Z21" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="184"/>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21" s="213"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9" t="s">
@@ -21648,7 +22288,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G22" s="221"/>
+      <c r="G22" s="192"/>
       <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21670,7 +22310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
         <v>43</v>
       </c>
@@ -21688,7 +22328,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G23" s="221"/>
+      <c r="G23" s="192"/>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21710,7 +22350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="9"/>
       <c r="C24" s="117" t="s">
@@ -21724,7 +22364,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G24" s="221"/>
+      <c r="G24" s="192"/>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21754,7 +22394,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="9"/>
       <c r="C25" s="117" t="s">
@@ -21768,7 +22408,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G25" s="221"/>
+      <c r="G25" s="192"/>
       <c r="H25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21790,21 +22430,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="13.5" thickBot="1">
+    <row r="26" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76"/>
       <c r="B26" s="63"/>
       <c r="C26" s="64" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="79"/>
-      <c r="E26" s="218">
+      <c r="E26" s="189">
         <v>5</v>
       </c>
       <c r="F26" s="128">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="221" t="s">
+      <c r="G26" s="192" t="s">
         <v>154</v>
       </c>
       <c r="H26" s="6">
@@ -21828,15 +22468,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="13.5" thickBot="1">
-      <c r="G27" s="219"/>
+    <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="190"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:27" ht="13.5" thickBot="1">
+    <row r="28" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="114" t="s">
         <v>61</v>
       </c>
@@ -21854,7 +22494,7 @@
         <f>SUM(D28:E28)</f>
         <v>373</v>
       </c>
-      <c r="G28" s="219"/>
+      <c r="G28" s="190"/>
       <c r="H28" s="6">
         <f>SUM(H2:H26)</f>
         <v>33</v>
@@ -21878,12 +22518,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:Q12"/>
@@ -21891,6 +22525,12 @@
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y24">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
@@ -21914,14 +22554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="5" customWidth="1"/>
@@ -21951,7 +22591,7 @@
     <col min="30" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13.5" thickBot="1">
+    <row r="1" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -21998,7 +22638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="13.5" thickBot="1">
+    <row r="2" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>62</v>
       </c>
@@ -22051,7 +22691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>64</v>
       </c>
@@ -22103,24 +22743,24 @@
       <c r="R3" s="6">
         <v>20</v>
       </c>
-      <c r="T3" s="189" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="185" t="s">
+      <c r="T3" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="186"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="185" t="s">
+      <c r="V3" s="208"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="189" t="s">
+      <c r="Y3" s="208"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="203" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="13.5" thickBot="1">
+    <row r="4" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="123" t="s">
@@ -22168,7 +22808,7 @@
       <c r="R4" s="6">
         <v>15</v>
       </c>
-      <c r="T4" s="190"/>
+      <c r="T4" s="204"/>
       <c r="U4" s="40" t="s">
         <v>26</v>
       </c>
@@ -22187,9 +22827,9 @@
       <c r="Z4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="190"/>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4" s="204"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="96" t="s">
         <v>66</v>
       </c>
@@ -22262,12 +22902,12 @@
       <c r="Z5" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="191">
+      <c r="AA5" s="211">
         <f>SUM(V5:V6,Y5:Y6)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="13.5" thickBot="1">
+    <row r="6" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>69</v>
       </c>
@@ -22332,9 +22972,9 @@
       <c r="X6" s="131"/>
       <c r="Y6" s="51"/>
       <c r="Z6" s="133"/>
-      <c r="AA6" s="183"/>
-    </row>
-    <row r="7" spans="1:27" ht="13.5" thickBot="1">
+      <c r="AA6" s="199"/>
+    </row>
+    <row r="7" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="123" t="s">
@@ -22400,12 +23040,12 @@
       <c r="Z7" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="183">
+      <c r="AA7" s="199">
         <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="96" t="s">
         <v>68</v>
       </c>
@@ -22456,9 +23096,9 @@
       <c r="Z8" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="183"/>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8" s="199"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="59" t="s">
         <v>71</v>
       </c>
@@ -22517,12 +23157,12 @@
       <c r="Z9" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="183">
+      <c r="AA9" s="199">
         <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="13.5" thickBot="1">
+    <row r="10" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="63"/>
       <c r="C10" s="64" t="s">
@@ -22563,9 +23203,9 @@
       <c r="X10" s="131"/>
       <c r="Y10" s="51"/>
       <c r="Z10" s="133"/>
-      <c r="AA10" s="183"/>
-    </row>
-    <row r="11" spans="1:27" ht="13.5" thickBot="1">
+      <c r="AA10" s="199"/>
+    </row>
+    <row r="11" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -22598,12 +23238,12 @@
       <c r="Z11" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA11" s="183">
+      <c r="AA11" s="199">
         <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="13.5" thickBot="1">
+    <row r="12" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="114" t="s">
         <v>14</v>
       </c>
@@ -22641,9 +23281,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="185"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="187"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="208"/>
+      <c r="Q12" s="209"/>
       <c r="T12" s="44"/>
       <c r="U12" s="130"/>
       <c r="V12" s="46"/>
@@ -22651,16 +23291,16 @@
       <c r="X12" s="130"/>
       <c r="Y12" s="46"/>
       <c r="Z12" s="73"/>
-      <c r="AA12" s="183"/>
-    </row>
-    <row r="13" spans="1:27" ht="13.5" thickBot="1">
+      <c r="AA12" s="199"/>
+    </row>
+    <row r="13" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="69"/>
       <c r="E13" s="69"/>
       <c r="F13" s="8"/>
-      <c r="O13" s="211"/>
+      <c r="O13" s="221"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="39"/>
       <c r="T13" s="53" t="s">
@@ -22684,12 +23324,12 @@
       <c r="Z13" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="183">
+      <c r="AA13" s="199">
         <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -22706,9 +23346,9 @@
       <c r="X14" s="131"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="133"/>
-      <c r="AA14" s="183"/>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14" s="199"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="109"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -22739,12 +23379,12 @@
       <c r="Z15" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="183">
+      <c r="AA15" s="199">
         <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -22761,9 +23401,9 @@
       <c r="X16" s="130"/>
       <c r="Y16" s="46"/>
       <c r="Z16" s="73"/>
-      <c r="AA16" s="183"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AA16" s="199"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -22794,12 +23434,12 @@
       <c r="Z17" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="183">
+      <c r="AA17" s="199">
         <f t="shared" ref="AA17" si="14">SUM(V17:V18,Y17:Y18)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="13.5" thickBot="1">
+    <row r="18" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -22816,9 +23456,9 @@
       <c r="X18" s="136"/>
       <c r="Y18" s="77"/>
       <c r="Z18" s="138"/>
-      <c r="AA18" s="184"/>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AA18" s="213"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -22829,7 +23469,7 @@
       <c r="P19" s="22"/>
       <c r="Q19" s="48"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" thickBot="1">
+    <row r="20" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -22848,7 +23488,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="13.5" thickBot="1">
+    <row r="21" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -22859,7 +23499,7 @@
       <c r="P21" s="67"/>
       <c r="Q21" s="68"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -22867,7 +23507,7 @@
       <c r="E22" s="69"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -22875,7 +23515,7 @@
       <c r="E23" s="69"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="69"/>
@@ -22883,7 +23523,7 @@
       <c r="E24" s="69"/>
       <c r="F24" s="69"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="69"/>
@@ -22891,7 +23531,7 @@
       <c r="E25" s="69"/>
       <c r="F25" s="69"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="69"/>
@@ -22899,7 +23539,7 @@
       <c r="E26" s="69"/>
       <c r="F26" s="69"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -22915,7 +23555,7 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -22931,7 +23571,7 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AB29" s="69"/>
       <c r="AC29" s="69"/>
       <c r="AD29" s="69"/>
@@ -22941,7 +23581,7 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="69"/>
@@ -22951,7 +23591,7 @@
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
@@ -22961,7 +23601,7 @@
       <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
@@ -22973,12 +23613,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA11:AA12"/>
@@ -22986,6 +23620,12 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA5:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
@@ -23009,14 +23649,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T39" sqref="T39:T40"/>
+    <sheetView tabSelected="1" topLeftCell="AA20" workbookViewId="0">
+      <selection activeCell="AG45" sqref="AG45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
@@ -23025,10 +23665,12 @@
     <col min="5" max="5" width="14.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="22" width="9.140625" style="5"/>
+    <col min="23" max="23" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -23054,7 +23696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -23080,7 +23722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -23106,7 +23748,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -23153,7 +23795,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -23179,7 +23821,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -23226,7 +23868,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -23252,7 +23894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -23299,7 +23941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -23325,7 +23967,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="AL10" s="5">
         <v>15</v>
       </c>
@@ -23348,7 +23990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="AL12" s="5">
         <v>9</v>
       </c>
@@ -23371,7 +24013,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="AL14" s="5">
         <v>6</v>
       </c>
@@ -23394,7 +24036,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="AL16" s="5">
         <v>2</v>
       </c>
@@ -23417,7 +24059,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="38:44">
+    <row r="18" spans="33:44" x14ac:dyDescent="0.2">
       <c r="AL18" s="5">
         <v>59</v>
       </c>
@@ -23440,7 +24082,152 @@
         <v>704</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
+    <row r="28" spans="33:44" x14ac:dyDescent="0.2">
+      <c r="AG28" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH28" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI28" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="33:44" x14ac:dyDescent="0.2">
+      <c r="AG29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH29" s="5">
+        <v>6</v>
+      </c>
+      <c r="AI29" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="33:44" x14ac:dyDescent="0.2">
+      <c r="AG30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>6</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="33:44" x14ac:dyDescent="0.2">
+      <c r="AG31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>17</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="33:44" x14ac:dyDescent="0.2">
+      <c r="AG32" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>16</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="5:35" x14ac:dyDescent="0.2">
+      <c r="X33" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>7</v>
+      </c>
+      <c r="AI33" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="5:35" x14ac:dyDescent="0.2">
+      <c r="W34" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="X34" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>8</v>
+      </c>
+      <c r="AG34" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH34" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI34" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="5:35" x14ac:dyDescent="0.2">
+      <c r="W35" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="X35" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>6</v>
+      </c>
+      <c r="AG35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH35" s="5">
+        <v>56</v>
+      </c>
+      <c r="AI35" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="5:35" x14ac:dyDescent="0.2">
+      <c r="W36" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="X36" s="5">
+        <v>17</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="5:35" x14ac:dyDescent="0.2">
+      <c r="W37" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="X37" s="5">
+        <v>16</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="5:35" x14ac:dyDescent="0.2">
+      <c r="W38" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="X38" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="5:35" x14ac:dyDescent="0.2">
       <c r="E39" s="5" t="str">
         <f>'Prospetto orario (CON AN)'!T51</f>
         <v>Ruolo</v>
@@ -23453,8 +24240,17 @@
         <f>'Prospetto orario (CON AN)'!V51</f>
         <v>Costo</v>
       </c>
-    </row>
-    <row r="40" spans="5:8">
+      <c r="W39" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="X39" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="5:35" x14ac:dyDescent="0.2">
       <c r="E40" s="5" t="str">
         <f>'Prospetto orario (CON AN)'!T52</f>
         <v>Responsabile</v>
@@ -23470,8 +24266,17 @@
       <c r="H40" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="5:8">
+      <c r="W40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X40" s="5">
+        <v>56</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="5:35" x14ac:dyDescent="0.2">
       <c r="E41" s="5" t="str">
         <f>'Prospetto orario (CON AN)'!T53</f>
         <v>Amministratore</v>
@@ -23488,7 +24293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
+    <row r="42" spans="5:35" x14ac:dyDescent="0.2">
       <c r="E42" s="5" t="str">
         <f>'Prospetto orario (CON AN)'!T54</f>
         <v>Analista</v>
@@ -23505,7 +24310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
+    <row r="43" spans="5:35" x14ac:dyDescent="0.2">
       <c r="E43" s="5" t="str">
         <f>'Prospetto orario (CON AN)'!T55</f>
         <v>Verificatore</v>
@@ -23521,8 +24326,11 @@
       <c r="H43" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="5:8">
+      <c r="AG43" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="5:35" x14ac:dyDescent="0.2">
       <c r="E44" s="5" t="str">
         <f>'Prospetto orario (CON AN)'!T56</f>
         <v>Progettista</v>
@@ -23538,8 +24346,11 @@
       <c r="H44" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="5:8">
+      <c r="AG44" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="5:35" x14ac:dyDescent="0.2">
       <c r="E45" s="5" t="str">
         <f>'Prospetto orario (CON AN)'!T57</f>
         <v>Programmatore</v>
@@ -23555,8 +24366,11 @@
       <c r="H45" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="5:8">
+      <c r="AG45" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="5:35" x14ac:dyDescent="0.2">
       <c r="E46" s="5" t="str">
         <f>'Prospetto orario (CON AN)'!T58</f>
         <v>Totale</v>
@@ -23570,7 +24384,7 @@
         <v>13381</v>
       </c>
     </row>
-    <row r="92" spans="41:42">
+    <row r="92" spans="41:42" x14ac:dyDescent="0.2">
       <c r="AO92" s="5">
         <v>12</v>
       </c>
@@ -23578,7 +24392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="41:42">
+    <row r="93" spans="41:42" x14ac:dyDescent="0.2">
       <c r="AO93" s="5">
         <v>0</v>
       </c>
@@ -23586,7 +24400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="41:42">
+    <row r="94" spans="41:42" x14ac:dyDescent="0.2">
       <c r="AO94" s="5">
         <v>6</v>
       </c>
@@ -23594,7 +24408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="41:42">
+    <row r="95" spans="41:42" x14ac:dyDescent="0.2">
       <c r="AO95" s="5">
         <v>0</v>
       </c>
@@ -23602,7 +24416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="41:42">
+    <row r="96" spans="41:42" x14ac:dyDescent="0.2">
       <c r="AO96" s="5">
         <v>0</v>
       </c>
@@ -23610,7 +24424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="41:42">
+    <row r="97" spans="41:42" x14ac:dyDescent="0.2">
       <c r="AO97" s="5">
         <v>0</v>
       </c>
@@ -23618,7 +24432,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="41:42">
+    <row r="98" spans="41:42" x14ac:dyDescent="0.2">
       <c r="AO98" s="5">
         <v>12</v>
       </c>
@@ -23626,7 +24440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="3:9">
+    <row r="115" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C115" s="5">
         <v>4</v>
       </c>
@@ -23649,7 +24463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="3:9">
+    <row r="116" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C116" s="5">
         <v>13</v>
       </c>
@@ -23672,7 +24486,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="3:9">
+    <row r="117" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C117" s="5">
         <v>10</v>
       </c>
@@ -23695,7 +24509,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="3:9">
+    <row r="118" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C118" s="5">
         <v>15</v>
       </c>
@@ -23718,7 +24532,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="119" spans="3:9">
+    <row r="119" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C119" s="5">
         <v>9</v>
       </c>
@@ -23741,7 +24555,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="120" spans="3:9">
+    <row r="120" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C120" s="5">
         <v>6</v>
       </c>
@@ -23764,7 +24578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="3:9">
+    <row r="121" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C121" s="5">
         <v>2</v>
       </c>
@@ -23787,7 +24601,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="3:9">
+    <row r="122" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C122" s="5">
         <v>59</v>
       </c>
@@ -23810,37 +24624,37 @@
         <v>690</v>
       </c>
     </row>
-    <row r="133" spans="41:41">
+    <row r="133" spans="41:41" x14ac:dyDescent="0.2">
       <c r="AO133" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="41:41">
+    <row r="134" spans="41:41" x14ac:dyDescent="0.2">
       <c r="AO134" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="41:41">
+    <row r="135" spans="41:41" x14ac:dyDescent="0.2">
       <c r="AO135" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="41:41">
+    <row r="136" spans="41:41" x14ac:dyDescent="0.2">
       <c r="AO136" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="41:41">
+    <row r="137" spans="41:41" x14ac:dyDescent="0.2">
       <c r="AO137" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="41:41">
+    <row r="138" spans="41:41" x14ac:dyDescent="0.2">
       <c r="AO138" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="41:41">
+    <row r="139" spans="41:41" x14ac:dyDescent="0.2">
       <c r="AO139" s="5">
         <v>12</v>
       </c>
